--- a/input/frames-new-modified.xlsx
+++ b/input/frames-new-modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="24660" windowHeight="16600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="21840" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="frames-new" sheetId="1" r:id="rId1"/>
     <sheet name="FrameMatrix" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -445,9 +445,6 @@
     <t>Subframe</t>
   </si>
   <si>
-    <t>Darba devējs</t>
-  </si>
-  <si>
     <t>Tas, kas ieceļ amatā – saeima, direktors, akcionāri, utml</t>
   </si>
   <si>
@@ -917,6 +914,9 @@
   </si>
   <si>
     <t>NotCore</t>
+  </si>
+  <si>
+    <t>Darba_devējs</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1475,10 @@
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1823,41 +1823,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="3" max="4" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="10" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="10" width="5.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="14" max="14" width="51.5" customWidth="1"/>
+    <col min="14" max="14" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="G1" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G1" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1919,13 +1919,13 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="15">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,13 +1945,13 @@
         <v>9</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1971,13 +1971,13 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2002,7 +2002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2078,13 +2078,13 @@
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,13 +2100,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2196,13 +2196,13 @@
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="15">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2222,13 +2222,13 @@
         <v>9</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2248,13 +2248,13 @@
         <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2270,13 +2270,13 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2301,7 +2301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2391,7 +2391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2419,7 +2419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2444,7 +2444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2464,13 +2464,13 @@
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="15">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,13 +2490,13 @@
         <v>9</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -3022,13 +3022,13 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,13 +3048,13 @@
         <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -3079,7 +3079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>89</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>89</v>
       </c>
@@ -3161,13 +3161,13 @@
         <v>9</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
@@ -3187,13 +3187,13 @@
         <v>9</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -3209,13 +3209,13 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
@@ -3231,13 +3231,13 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -3333,13 +3333,13 @@
         <v>9</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
@@ -3359,13 +3359,13 @@
         <v>9</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -3381,13 +3381,13 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -3403,13 +3403,13 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:14" ht="15">
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -3429,13 +3429,13 @@
         <v>9</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -3464,7 +3464,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>108</v>
       </c>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>108</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
@@ -3596,13 +3596,13 @@
         <v>9</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -3631,7 +3631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15">
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
@@ -3651,13 +3651,13 @@
         <v>9</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -3682,7 +3682,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>123</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>123</v>
       </c>
@@ -3830,13 +3830,13 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
@@ -3856,13 +3856,13 @@
         <v>9</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>123</v>
       </c>
@@ -3878,13 +3878,13 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>110</v>
       </c>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
@@ -3966,13 +3966,13 @@
         <v>9</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>110</v>
       </c>
@@ -3992,13 +3992,13 @@
         <v>9</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>110</v>
       </c>
@@ -4014,13 +4014,13 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>110</v>
       </c>
@@ -4036,13 +4036,13 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>110</v>
       </c>
@@ -4062,13 +4062,13 @@
         <v>9</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:14" ht="15">
+    <row r="122" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>110</v>
       </c>
@@ -4088,13 +4088,13 @@
         <v>9</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>110</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -4119,7 +4119,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="15">
+    <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>110</v>
       </c>
@@ -4139,13 +4139,13 @@
         <v>9</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:14" ht="15">
+    <row r="125" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>110</v>
       </c>
@@ -4165,13 +4165,13 @@
         <v>9</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>110</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>110</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>110</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>110</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>110</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>139</v>
       </c>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>139</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>139</v>
       </c>
@@ -4303,13 +4303,13 @@
         <v>9</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>139</v>
       </c>
@@ -4329,13 +4329,13 @@
         <v>9</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -4351,13 +4351,13 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -4368,21 +4368,21 @@
         <v>10</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="N136" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -4398,13 +4398,13 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4424,13 +4424,13 @@
         <v>9</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:14" ht="15">
+    <row r="139" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
@@ -4450,13 +4450,13 @@
         <v>9</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
@@ -4476,16 +4476,16 @@
         <v>9</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="N140" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -4496,10 +4496,10 @@
         <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -4510,12 +4510,12 @@
         <v>19</v>
       </c>
       <c r="D142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -4533,9 +4533,9 @@
       </c>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>23</v>
@@ -4555,9 +4555,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>5</v>
@@ -4575,15 +4575,15 @@
         <v>9</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>5</v>
@@ -4601,15 +4601,15 @@
         <v>9</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>5</v>
@@ -4623,15 +4623,15 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>5</v>
@@ -4640,23 +4640,23 @@
         <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="N148" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>5</v>
@@ -4670,15 +4670,15 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>5</v>
@@ -4696,15 +4696,15 @@
         <v>9</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:14" ht="15">
+    <row r="151" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>5</v>
@@ -4722,15 +4722,15 @@
         <v>9</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>5</v>
@@ -4739,7 +4739,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>8</v>
@@ -4748,18 +4748,18 @@
         <v>9</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="N152" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B153" t="s">
         <v>18</v>
@@ -4768,12 +4768,12 @@
         <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B154" t="s">
         <v>18</v>
@@ -4782,12 +4782,12 @@
         <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B155" t="s">
         <v>18</v>
@@ -4796,12 +4796,12 @@
         <v>19</v>
       </c>
       <c r="D155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>1</v>
@@ -4819,12 +4819,12 @@
       </c>
       <c r="J156" s="4"/>
       <c r="N156" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>5</v>
@@ -4833,7 +4833,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>8</v>
@@ -4842,15 +4842,15 @@
         <v>9</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>5</v>
@@ -4859,7 +4859,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>99</v>
@@ -4868,15 +4868,15 @@
         <v>9</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:14" ht="15">
+    <row r="159" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>5</v>
@@ -4894,15 +4894,15 @@
         <v>9</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>5</v>
@@ -4916,15 +4916,15 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B161" t="s">
         <v>18</v>
@@ -4933,12 +4933,12 @@
         <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162" t="s">
         <v>18</v>
@@ -4947,12 +4947,12 @@
         <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
         <v>18</v>
@@ -4961,12 +4961,12 @@
         <v>19</v>
       </c>
       <c r="D163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
-      <c r="A164" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>1</v>
@@ -4984,9 +4984,9 @@
       </c>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>5</v>
@@ -4995,7 +4995,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>83</v>
@@ -5004,15 +5004,15 @@
         <v>9</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>5</v>
@@ -5021,23 +5021,23 @@
         <v>6</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="N166" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>5</v>
@@ -5051,15 +5051,15 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>5</v>
@@ -5068,20 +5068,20 @@
         <v>15</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>5</v>
@@ -5090,20 +5090,20 @@
         <v>15</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:14" ht="15">
+    <row r="170" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>5</v>
@@ -5121,15 +5121,15 @@
         <v>9</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>5</v>
@@ -5147,15 +5147,15 @@
         <v>9</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
@@ -5164,12 +5164,12 @@
         <v>26</v>
       </c>
       <c r="D172" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B173" t="s">
         <v>18</v>
@@ -5178,12 +5178,12 @@
         <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B174" t="s">
         <v>18</v>
@@ -5192,12 +5192,12 @@
         <v>19</v>
       </c>
       <c r="D174" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
-      <c r="A175" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>1</v>
@@ -5215,12 +5215,12 @@
       </c>
       <c r="J175" s="4"/>
       <c r="N175" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>5</v>
@@ -5229,7 +5229,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>83</v>
@@ -5238,15 +5238,15 @@
         <v>9</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>5</v>
@@ -5255,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>99</v>
@@ -5264,15 +5264,15 @@
         <v>9</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>5</v>
@@ -5281,23 +5281,23 @@
         <v>6</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="N178" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" ht="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>5</v>
@@ -5315,15 +5315,15 @@
         <v>9</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B180" t="s">
         <v>18</v>
@@ -5332,12 +5332,12 @@
         <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B181" t="s">
         <v>18</v>
@@ -5346,12 +5346,12 @@
         <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B182" t="s">
         <v>18</v>
@@ -5360,12 +5360,12 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B183" t="s">
         <v>18</v>
@@ -5374,12 +5374,12 @@
         <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B184" t="s">
         <v>18</v>
@@ -5388,12 +5388,12 @@
         <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
@@ -5402,12 +5402,12 @@
         <v>19</v>
       </c>
       <c r="D185" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
@@ -5416,12 +5416,12 @@
         <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
@@ -5430,12 +5430,12 @@
         <v>19</v>
       </c>
       <c r="D187" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
-      <c r="A188" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>1</v>
@@ -5453,9 +5453,9 @@
       </c>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>5</v>
@@ -5464,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>99</v>
@@ -5473,15 +5473,15 @@
         <v>9</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>5</v>
@@ -5490,7 +5490,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>83</v>
@@ -5499,15 +5499,15 @@
         <v>9</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>5</v>
@@ -5521,15 +5521,15 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>5</v>
@@ -5543,15 +5543,15 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="1:14" ht="15">
+    <row r="193" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>5</v>
@@ -5569,15 +5569,15 @@
         <v>9</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>5</v>
@@ -5595,15 +5595,15 @@
         <v>9</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
@@ -5612,12 +5612,12 @@
         <v>19</v>
       </c>
       <c r="D195" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B196" t="s">
         <v>18</v>
@@ -5626,12 +5626,12 @@
         <v>19</v>
       </c>
       <c r="D196" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
-      <c r="A197" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>1</v>
@@ -5649,9 +5649,9 @@
       </c>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>5</v>
@@ -5660,7 +5660,7 @@
         <v>6</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>83</v>
@@ -5669,15 +5669,15 @@
         <v>9</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>5</v>
@@ -5686,27 +5686,27 @@
         <v>6</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="N199" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>5</v>
@@ -5724,15 +5724,15 @@
         <v>9</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>5</v>
@@ -5750,15 +5750,15 @@
         <v>9</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>5</v>
@@ -5772,15 +5772,15 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>5</v>
@@ -5789,7 +5789,7 @@
         <v>15</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>83</v>
@@ -5798,15 +5798,15 @@
         <v>9</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B204" t="s">
         <v>18</v>
@@ -5815,12 +5815,12 @@
         <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B205" t="s">
         <v>18</v>
@@ -5829,12 +5829,12 @@
         <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B206" t="s">
         <v>18</v>
@@ -5843,12 +5843,12 @@
         <v>19</v>
       </c>
       <c r="D206" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B207" t="s">
         <v>18</v>
@@ -5857,12 +5857,12 @@
         <v>19</v>
       </c>
       <c r="D207" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14">
-      <c r="A208" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>1</v>
@@ -5880,9 +5880,9 @@
       </c>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>5</v>
@@ -5891,7 +5891,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>83</v>
@@ -5900,15 +5900,15 @@
         <v>9</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>5</v>
@@ -5917,23 +5917,23 @@
         <v>6</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="N210" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>5</v>
@@ -5942,20 +5942,20 @@
         <v>15</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>5</v>
@@ -5964,23 +5964,23 @@
         <v>10</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="N212" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" ht="15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>5</v>
@@ -5998,15 +5998,15 @@
         <v>9</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>5</v>
@@ -6015,20 +6015,20 @@
         <v>10</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>5</v>
@@ -6037,20 +6037,20 @@
         <v>10</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
@@ -6059,12 +6059,12 @@
         <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B217" t="s">
         <v>18</v>
@@ -6073,12 +6073,12 @@
         <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B218" t="s">
         <v>18</v>
@@ -6087,12 +6087,12 @@
         <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B219" t="s">
         <v>18</v>
@@ -6101,12 +6101,12 @@
         <v>26</v>
       </c>
       <c r="D219" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B220" t="s">
         <v>18</v>
@@ -6115,12 +6115,12 @@
         <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
@@ -6129,12 +6129,12 @@
         <v>19</v>
       </c>
       <c r="D221" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
-      <c r="A222" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>1</v>
@@ -6152,9 +6152,9 @@
       </c>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>5</v>
@@ -6163,7 +6163,7 @@
         <v>6</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>83</v>
@@ -6172,15 +6172,15 @@
         <v>9</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>5</v>
@@ -6189,20 +6189,20 @@
         <v>6</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" spans="1:14" ht="15">
+    <row r="225" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>5</v>
@@ -6220,15 +6220,15 @@
         <v>9</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>5</v>
@@ -6237,24 +6237,24 @@
         <v>10</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B227" t="s">
         <v>18</v>
@@ -6263,12 +6263,12 @@
         <v>26</v>
       </c>
       <c r="D227" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B228" t="s">
         <v>18</v>
@@ -6277,12 +6277,12 @@
         <v>26</v>
       </c>
       <c r="D228" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
@@ -6291,12 +6291,12 @@
         <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B230" t="s">
         <v>18</v>
@@ -6305,12 +6305,12 @@
         <v>26</v>
       </c>
       <c r="D230" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14">
-      <c r="A231" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>1</v>
@@ -6328,12 +6328,12 @@
       </c>
       <c r="J231" s="4"/>
       <c r="N231" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
         <v>6</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>83</v>
@@ -6351,15 +6351,15 @@
         <v>9</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>5</v>
@@ -6368,7 +6368,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>83</v>
@@ -6377,15 +6377,15 @@
         <v>9</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>5</v>
@@ -6394,22 +6394,22 @@
         <v>6</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>5</v>
@@ -6418,20 +6418,20 @@
         <v>10</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
     </row>
-    <row r="236" spans="1:14" ht="15">
+    <row r="236" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>5</v>
@@ -6449,15 +6449,15 @@
         <v>9</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>5</v>
@@ -6466,20 +6466,20 @@
         <v>10</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B238" t="s">
         <v>18</v>
@@ -6488,12 +6488,12 @@
         <v>26</v>
       </c>
       <c r="D238" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B239" t="s">
         <v>18</v>
@@ -6502,12 +6502,12 @@
         <v>26</v>
       </c>
       <c r="D239" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B240" t="s">
         <v>18</v>
@@ -6516,12 +6516,12 @@
         <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
@@ -6530,12 +6530,12 @@
         <v>19</v>
       </c>
       <c r="D241" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14">
-      <c r="A242" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>1</v>
@@ -6553,9 +6553,9 @@
       </c>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>5</v>
@@ -6564,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>83</v>
@@ -6573,15 +6573,15 @@
         <v>9</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>5</v>
@@ -6590,20 +6590,20 @@
         <v>6</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>5</v>
@@ -6612,7 +6612,7 @@
         <v>6</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>99</v>
@@ -6621,15 +6621,15 @@
         <v>9</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>5</v>
@@ -6638,7 +6638,7 @@
         <v>10</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>83</v>
@@ -6647,18 +6647,18 @@
         <v>9</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="N246" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>5</v>
@@ -6667,7 +6667,7 @@
         <v>10</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>8</v>
@@ -6676,15 +6676,15 @@
         <v>9</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>5</v>
@@ -6693,7 +6693,7 @@
         <v>10</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>8</v>
@@ -6702,15 +6702,15 @@
         <v>9</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>5</v>
@@ -6728,15 +6728,15 @@
         <v>9</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
     </row>
-    <row r="250" spans="1:14" ht="15">
+    <row r="250" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>5</v>
@@ -6754,15 +6754,15 @@
         <v>9</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B251" t="s">
         <v>18</v>
@@ -6771,12 +6771,12 @@
         <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B252" t="s">
         <v>18</v>
@@ -6785,12 +6785,12 @@
         <v>26</v>
       </c>
       <c r="D252" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B253" t="s">
         <v>18</v>
@@ -6799,12 +6799,12 @@
         <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B254" t="s">
         <v>18</v>
@@ -6813,12 +6813,12 @@
         <v>26</v>
       </c>
       <c r="D254" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B255" t="s">
         <v>18</v>
@@ -6827,12 +6827,12 @@
         <v>26</v>
       </c>
       <c r="D255" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B256" t="s">
         <v>18</v>
@@ -6841,12 +6841,12 @@
         <v>19</v>
       </c>
       <c r="D256" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B257" t="s">
         <v>18</v>
@@ -6855,12 +6855,12 @@
         <v>19</v>
       </c>
       <c r="D257" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14">
-      <c r="A258" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>1</v>
@@ -6878,9 +6878,9 @@
       </c>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>5</v>
@@ -6889,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>83</v>
@@ -6898,15 +6898,15 @@
         <v>9</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>5</v>
@@ -6915,7 +6915,7 @@
         <v>6</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>83</v>
@@ -6924,15 +6924,15 @@
         <v>9</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>5</v>
@@ -6941,23 +6941,23 @@
         <v>15</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
       <c r="N261" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>5</v>
@@ -6966,20 +6966,20 @@
         <v>15</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>5</v>
@@ -6988,20 +6988,20 @@
         <v>15</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>5</v>
@@ -7010,20 +7010,20 @@
         <v>15</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>5</v>
@@ -7032,24 +7032,24 @@
         <v>10</v>
       </c>
       <c r="D265" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>5</v>
@@ -7063,15 +7063,15 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>5</v>
@@ -7089,15 +7089,15 @@
         <v>9</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
     </row>
-    <row r="268" spans="1:14" ht="15">
+    <row r="268" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>5</v>
@@ -7115,15 +7115,15 @@
         <v>9</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B269" t="s">
         <v>18</v>
@@ -7132,12 +7132,12 @@
         <v>26</v>
       </c>
       <c r="D269" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B270" t="s">
         <v>18</v>
@@ -7146,12 +7146,12 @@
         <v>26</v>
       </c>
       <c r="D270" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B271" t="s">
         <v>18</v>
@@ -7160,12 +7160,12 @@
         <v>26</v>
       </c>
       <c r="D271" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B272" t="s">
         <v>18</v>
@@ -7174,12 +7174,12 @@
         <v>26</v>
       </c>
       <c r="D272" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B273" t="s">
         <v>18</v>
@@ -7188,12 +7188,12 @@
         <v>26</v>
       </c>
       <c r="D273" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B274" t="s">
         <v>18</v>
@@ -7202,12 +7202,12 @@
         <v>26</v>
       </c>
       <c r="D274" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B275" t="s">
         <v>18</v>
@@ -7219,9 +7219,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>1</v>
@@ -7239,9 +7239,9 @@
       </c>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>5</v>
@@ -7250,7 +7250,7 @@
         <v>6</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>83</v>
@@ -7259,15 +7259,15 @@
         <v>9</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>5</v>
@@ -7276,23 +7276,23 @@
         <v>6</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
       <c r="N278" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>5</v>
@@ -7301,27 +7301,27 @@
         <v>15</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
       <c r="N279" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>5</v>
@@ -7330,20 +7330,20 @@
         <v>10</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>5</v>
@@ -7352,23 +7352,23 @@
         <v>10</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
       <c r="N281" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" ht="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>5</v>
@@ -7386,15 +7386,15 @@
         <v>9</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>5</v>
@@ -7412,15 +7412,15 @@
         <v>9</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>5</v>
@@ -7429,7 +7429,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>83</v>
@@ -7438,15 +7438,15 @@
         <v>9</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>5</v>
@@ -7455,7 +7455,7 @@
         <v>10</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>83</v>
@@ -7464,15 +7464,15 @@
         <v>9</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B286" t="s">
         <v>18</v>
@@ -7481,12 +7481,12 @@
         <v>26</v>
       </c>
       <c r="D286" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B287" t="s">
         <v>18</v>
@@ -7495,12 +7495,12 @@
         <v>26</v>
       </c>
       <c r="D287" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B288" t="s">
         <v>18</v>
@@ -7509,12 +7509,12 @@
         <v>26</v>
       </c>
       <c r="D288" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B289" t="s">
         <v>18</v>
@@ -7523,12 +7523,12 @@
         <v>19</v>
       </c>
       <c r="D289" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B290" t="s">
         <v>18</v>
@@ -7537,12 +7537,12 @@
         <v>19</v>
       </c>
       <c r="D290" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14">
-      <c r="A291" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>1</v>
@@ -7560,9 +7560,9 @@
       </c>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>5</v>
@@ -7571,7 +7571,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>83</v>
@@ -7580,15 +7580,15 @@
         <v>9</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>5</v>
@@ -7597,7 +7597,7 @@
         <v>6</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>8</v>
@@ -7606,18 +7606,18 @@
         <v>9</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
       <c r="N293" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>5</v>
@@ -7626,20 +7626,20 @@
         <v>6</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>5</v>
@@ -7648,23 +7648,23 @@
         <v>15</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
       <c r="N295" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14" ht="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>5</v>
@@ -7682,15 +7682,15 @@
         <v>9</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B297" t="s">
         <v>18</v>
@@ -7699,12 +7699,12 @@
         <v>19</v>
       </c>
       <c r="D297" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B298" t="s">
         <v>18</v>
@@ -7713,12 +7713,12 @@
         <v>19</v>
       </c>
       <c r="D298" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B299" t="s">
         <v>18</v>
@@ -7727,12 +7727,12 @@
         <v>19</v>
       </c>
       <c r="D299" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B300" t="s">
         <v>18</v>
@@ -7741,20 +7741,20 @@
         <v>19</v>
       </c>
       <c r="D300" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14">
-      <c r="A301" t="s">
-        <v>277</v>
       </c>
       <c r="B301" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -7763,7 +7763,7 @@
         <v>6</v>
       </c>
       <c r="D302" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E302" t="s">
         <v>99</v>
@@ -7772,9 +7772,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -7783,12 +7783,12 @@
         <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -7797,12 +7797,12 @@
         <v>6</v>
       </c>
       <c r="D304" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -7811,7 +7811,7 @@
         <v>6</v>
       </c>
       <c r="D305" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E305" t="s">
         <v>83</v>
@@ -7820,9 +7820,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -7831,7 +7831,7 @@
         <v>6</v>
       </c>
       <c r="D306" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E306" t="s">
         <v>83</v>
@@ -7840,9 +7840,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -7851,12 +7851,12 @@
         <v>6</v>
       </c>
       <c r="D307" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -7874,9 +7874,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B309" t="s">
         <v>18</v>
@@ -7885,12 +7885,12 @@
         <v>26</v>
       </c>
       <c r="D309" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B310" t="s">
         <v>18</v>
@@ -7899,12 +7899,12 @@
         <v>19</v>
       </c>
       <c r="D310" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14">
-      <c r="A311" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>1</v>
@@ -7922,12 +7922,12 @@
       </c>
       <c r="J311" s="4"/>
       <c r="N311" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>5</v>
@@ -7936,20 +7936,20 @@
         <v>6</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>5</v>
@@ -7958,7 +7958,7 @@
         <v>6</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>83</v>
@@ -7967,18 +7967,18 @@
         <v>9</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
       <c r="N313" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>5</v>
@@ -7987,23 +7987,23 @@
         <v>6</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
       <c r="N314" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B315" t="s">
         <v>18</v>
@@ -8012,12 +8012,12 @@
         <v>26</v>
       </c>
       <c r="D315" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B316" t="s">
         <v>18</v>
@@ -8026,12 +8026,12 @@
         <v>26</v>
       </c>
       <c r="D316" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B317" t="s">
         <v>18</v>
@@ -8040,12 +8040,12 @@
         <v>19</v>
       </c>
       <c r="D317" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B318" t="s">
         <v>18</v>
@@ -8054,7 +8054,7 @@
         <v>19</v>
       </c>
       <c r="D318" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -8075,26 +8075,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f ca="1">CELL("address",'frames-new'!A4)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$4</v>
@@ -8144,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f ca="1">CELL("address",'frames-new'!A11)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$11</v>
@@ -8194,7 +8194,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f ca="1">CELL("address",'frames-new'!A17)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$17</v>
@@ -8244,7 +8244,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f ca="1">CELL("address",'frames-new'!A26)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$26</v>
@@ -8294,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f ca="1">CELL("address",'frames-new'!A67)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$67</v>
@@ -8344,7 +8344,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f ca="1">CELL("address",'frames-new'!A74)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$74</v>
@@ -8394,7 +8394,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f ca="1">CELL("address",'frames-new'!A83)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$83</v>
@@ -8444,7 +8444,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f ca="1">CELL("address",'frames-new'!A96)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$96</v>
@@ -8494,7 +8494,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f ca="1">CELL("address",'frames-new'!A109)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$109</v>
@@ -8544,7 +8544,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f ca="1">CELL("address",'frames-new'!A116)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$116</v>
@@ -8594,7 +8594,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f ca="1">CELL("address",'frames-new'!A132)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$132</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="F12" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:E12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:E12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:E12),3),"")</f>
-        <v>Darba devējs</v>
+        <v>Darba_devējs</v>
       </c>
       <c r="G12" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:F12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:F12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:F12),3),"")</f>
@@ -8644,7 +8644,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f ca="1">CELL("address",'frames-new'!A144)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$144</v>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="F13" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:E13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:E13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:E13),3),"")</f>
-        <v>Darba devējs</v>
+        <v>Darba_devējs</v>
       </c>
       <c r="G13" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:F13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:F13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:F13),3),"")</f>
@@ -8694,7 +8694,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f ca="1">CELL("address",'frames-new'!A156)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$156</v>
@@ -8744,7 +8744,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f ca="1">CELL("address",'frames-new'!A164)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$164</v>
@@ -8794,7 +8794,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f ca="1">CELL("address",'frames-new'!A175)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$175</v>
@@ -8844,7 +8844,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f ca="1">CELL("address",'frames-new'!A188)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$188</v>
@@ -8894,7 +8894,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f ca="1">CELL("address",'frames-new'!A197)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$197</v>
@@ -8944,7 +8944,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f ca="1">CELL("address",'frames-new'!A208)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$208</v>
@@ -8994,7 +8994,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f ca="1">CELL("address",'frames-new'!A222)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$222</v>
@@ -9044,7 +9044,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f ca="1">CELL("address",'frames-new'!A231)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$231</v>
@@ -9094,7 +9094,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f ca="1">CELL("address",'frames-new'!A242)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$242</v>
@@ -9144,7 +9144,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f ca="1">CELL("address",'frames-new'!A258)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$258</v>
@@ -9194,7 +9194,7 @@
         <v>Laiks</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f ca="1">CELL("address",'frames-new'!A276)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$276</v>
@@ -9244,7 +9244,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f ca="1">CELL("address",'frames-new'!A291)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$291</v>
@@ -9294,7 +9294,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f ca="1">CELL("address",'frames-new'!A311)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$311</v>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="str">
         <f t="shared" ref="B28:B52" si="0">B2</f>
         <v>Dzimšana</v>
@@ -9390,7 +9390,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Vecums</v>
@@ -9436,7 +9436,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Miršana</v>
@@ -9482,7 +9482,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Attiecības</v>
@@ -9528,7 +9528,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Vārds</v>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Dzīvesvieta</v>
@@ -9620,7 +9620,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Izglītība</v>
@@ -9666,7 +9666,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Nodarbošanās</v>
@@ -9712,7 +9712,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Izcelsme</v>
@@ -9758,7 +9758,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Amats</v>
@@ -9804,7 +9804,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Darba_sākums</v>
@@ -9850,7 +9850,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Darba_beigas</v>
@@ -9896,7 +9896,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Dalība</v>
@@ -9942,7 +9942,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Vēlēšanas</v>
@@ -9988,7 +9988,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Atbalsts</v>
@@ -10034,7 +10034,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Dibināšana</v>
@@ -10080,7 +10080,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Piedalīšanās</v>
@@ -10126,7 +10126,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Finanses</v>
@@ -10143,10 +10143,10 @@
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:D19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:D19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:D19),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="1" t="str">
@@ -10170,7 +10170,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Īpašums</v>
@@ -10216,7 +10216,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Parāds</v>
@@ -10262,7 +10262,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tiesvedība</v>
@@ -10275,8 +10275,8 @@
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:C22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:C22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:C22),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>298</v>
+      <c r="E48" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="F48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:E22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:E22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:E22),2),"")</f>
@@ -10307,7 +10307,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Uzbrukums</v>
@@ -10353,7 +10353,7 @@
         <v>Peripheral</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Sasniegums</v>
@@ -10399,7 +10399,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ziņošana</v>
@@ -10445,7 +10445,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Zīmols</v>
@@ -10491,7 +10491,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="str">
         <f>B2</f>
         <v>Dzimšana</v>
@@ -10537,7 +10537,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="str">
         <f t="shared" ref="B55:B78" si="1">B3</f>
         <v>Vecums</v>
@@ -10583,7 +10583,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Miršana</v>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Attiecības</v>
@@ -10675,7 +10675,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Vārds</v>
@@ -10721,7 +10721,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Dzīvesvieta</v>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Izglītība</v>
@@ -10813,7 +10813,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Nodarbošanās</v>
@@ -10859,7 +10859,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Izcelsme</v>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Amats</v>
@@ -10951,7 +10951,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Darba_sākums</v>
@@ -10997,7 +10997,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Darba_beigas</v>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Dalība</v>
@@ -11089,7 +11089,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Vēlēšanas</v>
@@ -11135,7 +11135,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Atbalsts</v>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Dibināšana</v>
@@ -11227,7 +11227,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Piedalīšanās</v>
@@ -11273,7 +11273,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Finanses</v>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Īpašums</v>
@@ -11365,7 +11365,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Parāds</v>
@@ -11411,7 +11411,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Tiesvedība</v>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Uzbrukums</v>
@@ -11503,7 +11503,7 @@
         <v>4y2m2d v EID</v>
       </c>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Sasniegums</v>
@@ -11549,7 +11549,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="str">
         <f>B25</f>
         <v>Ziņošana</v>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Zīmols</v>

--- a/input/frames-new-modified.xlsx
+++ b/input/frames-new-modified.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="21840" windowHeight="13410"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="21840" windowHeight="13410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="frames-new" sheetId="1" r:id="rId1"/>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView topLeftCell="A292" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8073,10 +8073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L78"/>
+  <dimension ref="A2:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9296,2353 +9296,2507 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
+        <f ca="1">CELL("address",'frames-new'!A302)</f>
+        <v>'[frames-new-modified.xlsx]frames-new'!$A$302</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>'frames-new'!$A$301</f>
+        <v>Publisks_Iepirkums</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),3),"")</f>
+        <v>Tēma</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),3),"")</f>
+        <v>Paredzētā_Summa</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),3),"")</f>
+        <v>Pretendenti</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),3),"")</f>
+        <v>Uzvarētājs</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),3),"")</f>
+        <v>Rezultāts</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),3),"")</f>
+        <v>Laiks</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),3),"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),3),"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:J26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:J26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:J26),3),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:K26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:K26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:K26),3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
         <f ca="1">CELL("address",'frames-new'!A311)</f>
         <v>'[frames-new-modified.xlsx]frames-new'!$A$311</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B27" s="2" t="str">
         <f>'frames-new'!$A$311</f>
         <v>Zīmols</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),3),"")</f>
+      <c r="C27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:B27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:B27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:B27),3),"")</f>
         <v>Zīmols</v>
       </c>
-      <c r="D26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),3),"")</f>
+      <c r="D27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:C27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:C27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:C27),3),"")</f>
         <v>Organizācija</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),3),"")</f>
+      <c r="E27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:D27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:D27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:D27),3),"")</f>
         <v>Produkts</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),3),"")</f>
-        <v/>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),3),"")</f>
-        <v/>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),3),"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),3),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),3),"")</f>
-        <v/>
-      </c>
-      <c r="K26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:J26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:J26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:J26),3),"")</f>
-        <v/>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:K26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:K26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:K26),3),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="str">
-        <f t="shared" ref="B28:B52" si="0">B2</f>
+      <c r="F27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:E27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:E27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:E27),3),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:F27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:F27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:F27),3),"")</f>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:G27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:G27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:G27),3),"")</f>
+        <v/>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:H27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:H27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:H27),3),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:I27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:I27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:I27),3),"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:J27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:J27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:J27),3),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:K27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:K27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:K27),3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="str">
+        <f>B2</f>
         <v>Dzimšana</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:B2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:B2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:B2),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:C2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:C2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:C2),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:D2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:D2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:D2),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="F29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:E2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:E2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:E2),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:F2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:F2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:F2),2),"")</f>
         <v/>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="H29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:G2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:G2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:G2),2),"")</f>
         <v/>
       </c>
-      <c r="I28" s="1" t="str">
+      <c r="I29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:H2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:H2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:H2),2),"")</f>
         <v/>
       </c>
-      <c r="J28" s="1" t="str">
+      <c r="J29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:I2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:I2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:I2),2),"")</f>
         <v/>
       </c>
-      <c r="K28" s="1" t="str">
+      <c r="K29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:J2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:J2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:J2),2),"")</f>
         <v/>
       </c>
-      <c r="L28" s="1" t="str">
+      <c r="L29" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:K2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:K2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:K2),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="str">
+        <f>B3</f>
         <v>Vecums</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:B3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:B3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:B3),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:C3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:C3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:C3),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:D3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:D3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:D3),2),"")</f>
         <v/>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="F30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:E3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:E3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:E3),2),"")</f>
         <v/>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:F3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:F3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:F3),2),"")</f>
         <v/>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:G3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:G3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:G3),2),"")</f>
         <v/>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:H3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:H3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:H3),2),"")</f>
         <v/>
       </c>
-      <c r="J29" s="1" t="str">
+      <c r="J30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:I3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:I3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:I3),2),"")</f>
         <v/>
       </c>
-      <c r="K29" s="1" t="str">
+      <c r="K30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:J3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:J3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:J3),2),"")</f>
         <v/>
       </c>
-      <c r="L29" s="1" t="str">
+      <c r="L30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:K3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:K3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:K3),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="str">
+        <f>B4</f>
         <v>Miršana</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:B4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:B4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:B4),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:C4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:C4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:C4),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:D4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:D4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:D4),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="F31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:E4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:E4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:E4),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:F4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:F4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:F4),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="H31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:G4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:G4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:G4),2),"")</f>
         <v/>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="I31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:H4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:H4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:H4),2),"")</f>
         <v/>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="J31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:I4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:I4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:I4),2),"")</f>
         <v/>
       </c>
-      <c r="K30" s="1" t="str">
+      <c r="K31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:J4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:J4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:J4),2),"")</f>
         <v/>
       </c>
-      <c r="L30" s="1" t="str">
+      <c r="L31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:K4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:K4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:K4),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="str">
+        <f>B5</f>
         <v>Attiecības</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:B5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:B5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:B5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:C5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:C5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:C5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="E32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:D5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:D5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:D5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:E5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:E5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:E5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:F5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:F5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:F5),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:G5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:G5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:G5),2),"")</f>
         <v/>
       </c>
-      <c r="I31" s="1" t="str">
+      <c r="I32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:H5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:H5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:H5),2),"")</f>
         <v/>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="J32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:I5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:I5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:I5),2),"")</f>
         <v/>
       </c>
-      <c r="K31" s="1" t="str">
+      <c r="K32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:J5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:J5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:J5),2),"")</f>
         <v/>
       </c>
-      <c r="L31" s="1" t="str">
+      <c r="L32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:K5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:K5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:K5),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="str">
+        <f>B6</f>
         <v>Vārds</v>
       </c>
-      <c r="C32" s="1" t="str">
+      <c r="C33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:B6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:B6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:B6),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:C6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:C6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:C6),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="E33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:D6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:D6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:D6),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:E6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:E6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:E6),2),"")</f>
         <v/>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:F6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:F6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:F6),2),"")</f>
         <v/>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:G6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:G6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:G6),2),"")</f>
         <v/>
       </c>
-      <c r="I32" s="1" t="str">
+      <c r="I33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:H6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:H6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:H6),2),"")</f>
         <v/>
       </c>
-      <c r="J32" s="1" t="str">
+      <c r="J33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:I6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:I6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:I6),2),"")</f>
         <v/>
       </c>
-      <c r="K32" s="1" t="str">
+      <c r="K33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:J6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:J6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:J6),2),"")</f>
         <v/>
       </c>
-      <c r="L32" s="1" t="str">
+      <c r="L33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:K6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:K6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:K6),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="str">
+        <f>B7</f>
         <v>Dzīvesvieta</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:B7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:B7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:B7),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:C7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:C7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:C7),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E33" s="1" t="str">
+      <c r="E34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:D7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:D7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:D7),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:E7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:E7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:E7),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:F7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:F7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:F7),2),"")</f>
         <v/>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:G7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:G7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:G7),2),"")</f>
         <v/>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="I34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:H7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:H7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:H7),2),"")</f>
         <v/>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="J34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:I7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:I7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:I7),2),"")</f>
         <v/>
       </c>
-      <c r="K33" s="1" t="str">
+      <c r="K34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:J7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:J7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:J7),2),"")</f>
         <v/>
       </c>
-      <c r="L33" s="1" t="str">
+      <c r="L34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:K7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:K7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:K7),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="str">
+        <f>B8</f>
         <v>Izglītība</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:B8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:B8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:B8),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:C8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:C8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:C8),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:D8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:D8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:D8),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:E8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:E8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:E8),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:F8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:F8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:F8),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:G8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:G8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:G8),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:H8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:H8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:H8),2),"")</f>
         <v/>
       </c>
-      <c r="J34" s="1" t="str">
+      <c r="J35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:I8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:I8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:I8),2),"")</f>
         <v/>
       </c>
-      <c r="K34" s="1" t="str">
+      <c r="K35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:J8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:J8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:J8),2),"")</f>
         <v/>
       </c>
-      <c r="L34" s="1" t="str">
+      <c r="L35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:K8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:K8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:K8),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="str">
+        <f>B9</f>
         <v>Nodarbošanās</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:B9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:B9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:B9),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="D36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:C9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:C9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:C9),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E35" s="1" t="str">
+      <c r="E36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:D9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:D9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:D9),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:E9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:E9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:E9),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G35" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:F9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:F9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:F9),2),"")</f>
         <v/>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="H36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:G9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:G9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:G9),2),"")</f>
         <v/>
       </c>
-      <c r="I35" s="1" t="str">
+      <c r="I36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:H9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:H9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:H9),2),"")</f>
         <v/>
       </c>
-      <c r="J35" s="1" t="str">
+      <c r="J36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:I9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:I9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:I9),2),"")</f>
         <v/>
       </c>
-      <c r="K35" s="1" t="str">
+      <c r="K36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:J9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:J9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:J9),2),"")</f>
         <v/>
       </c>
-      <c r="L35" s="1" t="str">
+      <c r="L36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:K9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:K9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:K9),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="str">
+        <f>B10</f>
         <v>Izcelsme</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:B10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:B10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:B10),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D36" s="1" t="str">
+      <c r="D37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:C10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:C10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:C10),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E36" s="1" t="str">
+      <c r="E37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:D10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:D10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:D10),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:E10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:E10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:E10),2),"")</f>
         <v/>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="G37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:F10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:F10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:F10),2),"")</f>
         <v/>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:G10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:G10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:G10),2),"")</f>
         <v/>
       </c>
-      <c r="I36" s="1" t="str">
+      <c r="I37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:H10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:H10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:H10),2),"")</f>
         <v/>
       </c>
-      <c r="J36" s="1" t="str">
+      <c r="J37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:I10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:I10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:I10),2),"")</f>
         <v/>
       </c>
-      <c r="K36" s="1" t="str">
+      <c r="K37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:J10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:J10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:J10),2),"")</f>
         <v/>
       </c>
-      <c r="L36" s="1" t="str">
+      <c r="L37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:K10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:K10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:K10),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="str">
+        <f>B11</f>
         <v>Amats</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:B11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:B11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:B11),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:C11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:C11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:C11),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E37" s="1" t="str">
+      <c r="E38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:D11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:D11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:D11),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:E11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:E11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:E11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="G38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:F11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:F11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:F11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:G11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:G11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:G11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I37" s="1" t="str">
+      <c r="I38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:H11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:H11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:H11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J37" s="1" t="str">
+      <c r="J38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:I11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:I11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:I11),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="K37" s="1" t="str">
+      <c r="K38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:J11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:J11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:J11),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="L37" s="1" t="str">
+      <c r="L38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:K11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:K11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:K11),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="str">
+        <f>B12</f>
         <v>Darba_sākums</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:B12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:B12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:B12),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D38" s="1" t="str">
+      <c r="D39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:C12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:C12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:C12),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E38" s="1" t="str">
+      <c r="E39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:D12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:D12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:D12),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:E12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:E12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:E12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="G39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:F12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:F12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:F12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="H39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:G12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:G12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:G12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I38" s="1" t="str">
+      <c r="I39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:H12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:H12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:H12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J38" s="1" t="str">
+      <c r="J39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:I12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:I12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:I12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K38" s="1" t="str">
+      <c r="K39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:J12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:J12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:J12),2),"")</f>
         <v/>
       </c>
-      <c r="L38" s="1" t="str">
+      <c r="L39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:K12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:K12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:K12),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="str">
+        <f>B13</f>
         <v>Darba_beigas</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:B13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:B13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:B13),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:C13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:C13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:C13),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E39" s="1" t="str">
+      <c r="E40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:D13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:D13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:D13),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:E13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:E13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:E13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:F13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:F13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:F13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:G13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:G13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:G13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I39" s="1" t="str">
+      <c r="I40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:H13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:H13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:H13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="J40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:I13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:I13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:I13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K39" s="1" t="str">
+      <c r="K40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:J13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:J13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:J13),2),"")</f>
         <v/>
       </c>
-      <c r="L39" s="1" t="str">
+      <c r="L40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:K13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:K13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:K13),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="str">
+        <f>B14</f>
         <v>Dalība</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:B14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:B14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:B14),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:C14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:C14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:C14),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E40" s="1" t="str">
+      <c r="E41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:D14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:D14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:D14),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="F41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:E14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:E14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:E14),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:F14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:F14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:F14),2),"")</f>
         <v/>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="H41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:G14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:G14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:G14),2),"")</f>
         <v/>
       </c>
-      <c r="I40" s="1" t="str">
+      <c r="I41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:H14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:H14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:H14),2),"")</f>
         <v/>
       </c>
-      <c r="J40" s="1" t="str">
+      <c r="J41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:I14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:I14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:I14),2),"")</f>
         <v/>
       </c>
-      <c r="K40" s="1" t="str">
+      <c r="K41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:J14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:J14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:J14),2),"")</f>
         <v/>
       </c>
-      <c r="L40" s="1" t="str">
+      <c r="L41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:K14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:K14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:K14),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="str">
+        <f>B15</f>
         <v>Vēlēšanas</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:B15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:B15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:B15),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D41" s="1" t="str">
+      <c r="D42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:C15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:C15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:C15),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E41" s="1" t="str">
+      <c r="E42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:D15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:D15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:D15),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:E15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:E15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:E15),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="G42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:F15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:F15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:F15),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="H42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:G15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:G15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:G15),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I41" s="1" t="str">
+      <c r="I42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:H15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:H15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:H15),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J41" s="1" t="str">
+      <c r="J42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:I15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:I15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:I15),2),"")</f>
         <v/>
       </c>
-      <c r="K41" s="1" t="str">
+      <c r="K42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:J15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:J15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:J15),2),"")</f>
         <v/>
       </c>
-      <c r="L41" s="1" t="str">
+      <c r="L42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:K15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:K15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:K15),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="str">
+        <f>B16</f>
         <v>Atbalsts</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:B16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:B16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:B16),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D42" s="1" t="str">
+      <c r="D43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:C16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:C16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:C16),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E42" s="1" t="str">
+      <c r="E43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:D16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:D16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:D16),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:E16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:E16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:E16),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="G43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:F16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:F16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:F16),2),"")</f>
         <v/>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="H43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:G16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:G16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:G16),2),"")</f>
         <v/>
       </c>
-      <c r="I42" s="1" t="str">
+      <c r="I43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:H16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:H16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:H16),2),"")</f>
         <v/>
       </c>
-      <c r="J42" s="1" t="str">
+      <c r="J43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:I16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:I16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:I16),2),"")</f>
         <v/>
       </c>
-      <c r="K42" s="1" t="str">
+      <c r="K43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:J16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:J16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:J16),2),"")</f>
         <v/>
       </c>
-      <c r="L42" s="1" t="str">
+      <c r="L43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:K16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:K16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:K16),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="str">
+        <f>B17</f>
         <v>Dibināšana</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:B17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:B17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:B17),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:C17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:C17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:C17),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:D17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:D17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:D17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:E17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:E17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:E17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G43" s="1" t="str">
+      <c r="G44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:F17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:F17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:F17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:G17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:G17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:G17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I43" s="1" t="str">
+      <c r="I44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:H17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:H17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:H17),2),"")</f>
         <v/>
       </c>
-      <c r="J43" s="1" t="str">
+      <c r="J44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:I17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:I17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:I17),2),"")</f>
         <v/>
       </c>
-      <c r="K43" s="1" t="str">
+      <c r="K44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:J17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:J17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:J17),2),"")</f>
         <v/>
       </c>
-      <c r="L43" s="1" t="str">
+      <c r="L44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:K17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:K17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:K17),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="str">
+        <f>B18</f>
         <v>Piedalīšanās</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:B18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:B18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:B18),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:C18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:C18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:C18),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E44" s="1" t="str">
+      <c r="E45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:D18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:D18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:D18),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="F45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:E18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:E18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:E18),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G44" s="1" t="str">
+      <c r="G45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:F18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:F18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:F18),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="H45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:G18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:G18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:G18),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="I44" s="1" t="str">
+      <c r="I45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:H18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:H18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:H18),2),"")</f>
         <v/>
       </c>
-      <c r="J44" s="1" t="str">
+      <c r="J45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:I18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:I18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:I18),2),"")</f>
         <v/>
       </c>
-      <c r="K44" s="1" t="str">
+      <c r="K45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:J18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:J18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:J18),2),"")</f>
         <v/>
       </c>
-      <c r="L44" s="1" t="str">
+      <c r="L45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:K18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:K18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:K18),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="str">
+        <f>B19</f>
         <v>Finanses</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:B19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:B19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:B19),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:C19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:C19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:C19),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E45" s="1" t="str">
+      <c r="E46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:D19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:D19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:D19),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="H46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:G19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:G19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:G19),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I45" s="1" t="str">
+      <c r="I46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:H19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:H19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:H19),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J45" s="1" t="str">
+      <c r="J46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:I19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:I19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:I19),2),"")</f>
         <v/>
       </c>
-      <c r="K45" s="1" t="str">
+      <c r="K46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:J19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:J19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:J19),2),"")</f>
         <v/>
       </c>
-      <c r="L45" s="1" t="str">
+      <c r="L46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:K19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:K19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:K19),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="str">
+        <f>B20</f>
         <v>Īpašums</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:B20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:B20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:B20),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="D47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:C20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:C20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:C20),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E46" s="1" t="str">
+      <c r="E47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:D20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:D20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:D20),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F46" s="1" t="str">
+      <c r="F47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:E20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:E20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:E20),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G46" s="1" t="str">
+      <c r="G47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:F20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:F20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:F20),2),"")</f>
         <v/>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="H47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:G20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:G20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:G20),2),"")</f>
         <v/>
       </c>
-      <c r="I46" s="1" t="str">
+      <c r="I47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:H20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:H20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:H20),2),"")</f>
         <v/>
       </c>
-      <c r="J46" s="1" t="str">
+      <c r="J47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:I20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:I20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:I20),2),"")</f>
         <v/>
       </c>
-      <c r="K46" s="1" t="str">
+      <c r="K47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:J20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:J20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:J20),2),"")</f>
         <v/>
       </c>
-      <c r="L46" s="1" t="str">
+      <c r="L47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:K20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:K20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:K20),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="str">
+        <f>B21</f>
         <v>Parāds</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:B21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:B21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:B21),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D47" s="1" t="str">
+      <c r="D48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:C21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:C21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:C21),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E47" s="1" t="str">
+      <c r="E48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:D21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:D21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:D21),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F47" s="1" t="str">
+      <c r="F48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:E21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:E21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:E21),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G47" s="1" t="str">
+      <c r="G48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:F21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:F21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:F21),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="H48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:G21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:G21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:G21),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I47" s="1" t="str">
+      <c r="I48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:H21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:H21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:H21),2),"")</f>
         <v/>
       </c>
-      <c r="J47" s="1" t="str">
+      <c r="J48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:I21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:I21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:I21),2),"")</f>
         <v/>
       </c>
-      <c r="K47" s="1" t="str">
+      <c r="K48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:J21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:J21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:J21),2),"")</f>
         <v/>
       </c>
-      <c r="L47" s="1" t="str">
+      <c r="L48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:K21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:K21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:K21),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="str">
+        <f>B22</f>
         <v>Tiesvedība</v>
       </c>
-      <c r="C48" s="1" t="str">
+      <c r="C49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:B22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:B22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:B22),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D48" s="1" t="str">
+      <c r="D49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:C22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:C22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:C22),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="F49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:E22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:E22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:E22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G48" s="1" t="str">
+      <c r="G49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:F22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:F22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:F22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="H49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:G22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:G22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:G22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I48" s="1" t="str">
+      <c r="I49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:H22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:H22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:H22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="J49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:I22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:I22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:I22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K48" s="1" t="str">
+      <c r="K49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:J22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:J22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:J22),2),"")</f>
         <v/>
       </c>
-      <c r="L48" s="1" t="str">
+      <c r="L49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:K22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:K22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:K22),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="str">
+        <f>B23</f>
         <v>Uzbrukums</v>
       </c>
-      <c r="C49" s="1" t="str">
+      <c r="C50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:B23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:B23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:B23),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:C23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:C23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:C23),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E49" s="1" t="str">
+      <c r="E50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:D23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:D23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:D23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F49" s="1" t="str">
+      <c r="F50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:E23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:E23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:E23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G49" s="1" t="str">
+      <c r="G50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:F23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:F23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:F23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="H50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:G23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:G23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:G23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="I49" s="1" t="str">
+      <c r="I50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:H23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:H23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:H23),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J49" s="1" t="str">
+      <c r="J50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:I23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:I23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:I23),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K49" s="1" t="str">
+      <c r="K50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:J23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:J23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:J23),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="L49" s="1" t="str">
+      <c r="L50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:K23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:K23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:K23),2),"")</f>
         <v>Peripheral</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="str">
+        <f>B24</f>
         <v>Sasniegums</v>
       </c>
-      <c r="C50" s="1" t="str">
+      <c r="C51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:B24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:B24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:B24),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D50" s="1" t="str">
+      <c r="D51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:C24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:C24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:C24),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E50" s="1" t="str">
+      <c r="E51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:D24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:D24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:D24),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F50" s="1" t="str">
+      <c r="F51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:E24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:E24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:E24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G50" s="1" t="str">
+      <c r="G51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:F24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:F24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:F24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H50" s="1" t="str">
+      <c r="H51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:G24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:G24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:G24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I50" s="1" t="str">
+      <c r="I51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:H24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:H24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:H24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J50" s="1" t="str">
+      <c r="J51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:I24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:I24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:I24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K50" s="1" t="str">
+      <c r="K51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:J24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:J24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:J24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="L50" s="1" t="str">
+      <c r="L51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:K24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:K24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:K24),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="str">
+        <f>B25</f>
         <v>Ziņošana</v>
       </c>
-      <c r="C51" s="1" t="str">
+      <c r="C52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:B25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:B25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:B25),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D51" s="1" t="str">
+      <c r="D52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:C25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:C25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:C25),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E51" s="1" t="str">
+      <c r="E52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:D25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:D25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:D25),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F51" s="1" t="str">
+      <c r="F52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:E25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:E25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:E25),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G51" s="1" t="str">
+      <c r="G52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:F25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:F25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:F25),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="H52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:G25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:G25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:G25),2),"")</f>
         <v/>
       </c>
-      <c r="I51" s="1" t="str">
+      <c r="I52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:H25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:H25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:H25),2),"")</f>
         <v/>
       </c>
-      <c r="J51" s="1" t="str">
+      <c r="J52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:I25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:I25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:I25),2),"")</f>
         <v/>
       </c>
-      <c r="K51" s="1" t="str">
+      <c r="K52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:J25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:J25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:J25),2),"")</f>
         <v/>
       </c>
-      <c r="L51" s="1" t="str">
+      <c r="L52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:K25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:K25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:K25),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Zīmols</v>
-      </c>
-      <c r="C52" s="1" t="str">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="str">
+        <f>B26</f>
+        <v>Publisks_Iepirkums</v>
+      </c>
+      <c r="C53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D52" s="1" t="str">
+      <c r="D53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E52" s="1" t="str">
+      <c r="E53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F52" s="1" t="str">
+      <c r="F53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),2),"")</f>
-        <v/>
-      </c>
-      <c r="G52" s="1" t="str">
+        <v>Core</v>
+      </c>
+      <c r="G53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),2),"")</f>
-        <v/>
-      </c>
-      <c r="H52" s="1" t="str">
+        <v>Core</v>
+      </c>
+      <c r="H53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),2),"")</f>
-        <v/>
-      </c>
-      <c r="I52" s="1" t="str">
+        <v>Peripheral</v>
+      </c>
+      <c r="I53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),2),"")</f>
         <v/>
       </c>
-      <c r="J52" s="1" t="str">
+      <c r="J53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),2),"")</f>
         <v/>
       </c>
-      <c r="K52" s="1" t="str">
+      <c r="K53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:J26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:J26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:J26),2),"")</f>
         <v/>
       </c>
-      <c r="L52" s="1" t="str">
+      <c r="L53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:K26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:K26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:K26),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="str">
+        <f t="shared" ref="B54" si="0">B27</f>
+        <v>Zīmols</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:B27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:B27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:B27),2),"")</f>
+        <v>Core</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:C27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:C27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:C27),2),"")</f>
+        <v>Core</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:D27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:D27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:D27),2),"")</f>
+        <v>Core</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:E27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:E27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:E27),2),"")</f>
+        <v/>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:F27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:F27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:F27),2),"")</f>
+        <v/>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:G27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:G27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:G27),2),"")</f>
+        <v/>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:H27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:H27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:H27),2),"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:I27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:I27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:I27),2),"")</f>
+        <v/>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:J27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:J27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:J27),2),"")</f>
+        <v/>
+      </c>
+      <c r="L54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:K27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:K27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:K27),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="str">
         <f>B2</f>
         <v>Dzimšana</v>
       </c>
-      <c r="C54" s="1" t="str">
+      <c r="C56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:B2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:B2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:B2),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D54" s="7" t="str">
+      <c r="D56" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:C2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:C2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:C2),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="E54" s="1" t="str">
+      <c r="E56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:D2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:D2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:D2),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F54" s="1" t="str">
+      <c r="F56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:E2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:E2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:E2),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G54" s="1" t="str">
+      <c r="G56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:F2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:F2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:F2),6),"")</f>
         <v/>
       </c>
-      <c r="H54" s="1" t="str">
+      <c r="H56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:G2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:G2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:G2),6),"")</f>
         <v/>
       </c>
-      <c r="I54" s="1" t="str">
+      <c r="I56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:H2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:H2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:H2),6),"")</f>
         <v/>
       </c>
-      <c r="J54" s="1" t="str">
+      <c r="J56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:I2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:I2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:I2),6),"")</f>
         <v/>
       </c>
-      <c r="K54" s="1" t="str">
+      <c r="K56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:J2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:J2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:J2),6),"")</f>
         <v/>
       </c>
-      <c r="L54" s="1" t="str">
+      <c r="L56" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:K2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:K2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:K2),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="str">
-        <f t="shared" ref="B55:B78" si="1">B3</f>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="str">
+        <f>B3</f>
         <v>Vecums</v>
       </c>
-      <c r="C55" s="1" t="str">
+      <c r="C57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:B3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:B3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:B3),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D55" s="1" t="str">
+      <c r="D57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:C3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:C3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:C3),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="E55" s="1" t="str">
+      <c r="E57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:D3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:D3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:D3),6),"")</f>
         <v/>
       </c>
-      <c r="F55" s="1" t="str">
+      <c r="F57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:E3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:E3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:E3),6),"")</f>
         <v/>
       </c>
-      <c r="G55" s="1" t="str">
+      <c r="G57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:F3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:F3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:F3),6),"")</f>
         <v/>
       </c>
-      <c r="H55" s="1" t="str">
+      <c r="H57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:G3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:G3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:G3),6),"")</f>
         <v/>
       </c>
-      <c r="I55" s="1" t="str">
+      <c r="I57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:H3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:H3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:H3),6),"")</f>
         <v/>
       </c>
-      <c r="J55" s="1" t="str">
+      <c r="J57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:I3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:I3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:I3),6),"")</f>
         <v/>
       </c>
-      <c r="K55" s="1" t="str">
+      <c r="K57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:J3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:J3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:J3),6),"")</f>
         <v/>
       </c>
-      <c r="L55" s="1" t="str">
+      <c r="L57" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:K3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:K3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:K3),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="str">
+        <f>B4</f>
         <v>Miršana</v>
       </c>
-      <c r="C56" s="1" t="str">
+      <c r="C58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:B4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:B4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:B4),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D56" s="7" t="str">
+      <c r="D58" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:C4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:C4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:C4),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="E56" s="1" t="str">
+      <c r="E58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:D4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:D4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:D4),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F56" s="1" t="str">
+      <c r="F58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:E4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:E4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:E4),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G56" s="1" t="str">
+      <c r="G58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:F4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:F4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:F4),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H56" s="1" t="str">
+      <c r="H58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:G4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:G4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:G4),6),"")</f>
         <v/>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:H4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:H4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:H4),6),"")</f>
         <v/>
       </c>
-      <c r="J56" s="1" t="str">
+      <c r="J58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:I4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:I4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:I4),6),"")</f>
         <v/>
       </c>
-      <c r="K56" s="1" t="str">
+      <c r="K58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:J4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:J4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:J4),6),"")</f>
         <v/>
       </c>
-      <c r="L56" s="1" t="str">
+      <c r="L58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:K4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:K4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:K4),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="str">
+        <f>B5</f>
         <v>Attiecības</v>
       </c>
-      <c r="C57" s="1" t="str">
+      <c r="C59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:B5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:B5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:B5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D57" s="1" t="str">
+      <c r="D59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:C5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:C5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:C5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E57" s="1" t="str">
+      <c r="E59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:D5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:D5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:D5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F57" s="1" t="str">
+      <c r="F59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:E5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:E5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:E5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="G57" s="7" t="str">
+      <c r="G59" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:F5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:F5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:F5),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H57" s="1" t="str">
+      <c r="H59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:G5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:G5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:G5),6),"")</f>
         <v/>
       </c>
-      <c r="I57" s="1" t="str">
+      <c r="I59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:H5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:H5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:H5),6),"")</f>
         <v/>
       </c>
-      <c r="J57" s="1" t="str">
+      <c r="J59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:I5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:I5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:I5),6),"")</f>
         <v/>
       </c>
-      <c r="K57" s="1" t="str">
+      <c r="K59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:J5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:J5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:J5),6),"")</f>
         <v/>
       </c>
-      <c r="L57" s="1" t="str">
+      <c r="L59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:K5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:K5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:K5),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="str">
+        <f>B6</f>
         <v>Vārds</v>
       </c>
-      <c r="C58" s="1" t="str">
+      <c r="C60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:B6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:B6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:B6),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="D58" s="1" t="str">
+      <c r="D60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:C6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:C6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:C6),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E58" s="1" t="str">
+      <c r="E60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:D6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:D6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:D6),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F58" s="1" t="str">
+      <c r="F60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:E6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:E6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:E6),6),"")</f>
         <v/>
       </c>
-      <c r="G58" s="1" t="str">
+      <c r="G60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:F6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:F6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:F6),6),"")</f>
         <v/>
       </c>
-      <c r="H58" s="1" t="str">
+      <c r="H60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:G6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:G6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:G6),6),"")</f>
         <v/>
       </c>
-      <c r="I58" s="1" t="str">
+      <c r="I60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:H6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:H6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:H6),6),"")</f>
         <v/>
       </c>
-      <c r="J58" s="1" t="str">
+      <c r="J60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:I6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:I6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:I6),6),"")</f>
         <v/>
       </c>
-      <c r="K58" s="1" t="str">
+      <c r="K60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:J6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:J6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:J6),6),"")</f>
         <v/>
       </c>
-      <c r="L58" s="1" t="str">
+      <c r="L60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:K6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:K6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:K6),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="str">
+        <f>B7</f>
         <v>Dzīvesvieta</v>
       </c>
-      <c r="C59" s="1" t="str">
+      <c r="C61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:B7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:B7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:B7),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D59" s="1" t="str">
+      <c r="D61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:C7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:C7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:C7),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E59" s="1" t="str">
+      <c r="E61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:D7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:D7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:D7),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F59" s="1" t="str">
+      <c r="F61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:E7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:E7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:E7),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G59" s="1" t="str">
+      <c r="G61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:F7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:F7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:F7),6),"")</f>
         <v/>
       </c>
-      <c r="H59" s="1" t="str">
+      <c r="H61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:G7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:G7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:G7),6),"")</f>
         <v/>
       </c>
-      <c r="I59" s="1" t="str">
+      <c r="I61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:H7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:H7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:H7),6),"")</f>
         <v/>
       </c>
-      <c r="J59" s="1" t="str">
+      <c r="J61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:I7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:I7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:I7),6),"")</f>
         <v/>
       </c>
-      <c r="K59" s="1" t="str">
+      <c r="K61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:J7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:J7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:J7),6),"")</f>
         <v/>
       </c>
-      <c r="L59" s="1" t="str">
+      <c r="L61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:K7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:K7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:K7),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="str">
+        <f>B8</f>
         <v>Izglītība</v>
       </c>
-      <c r="C60" s="1" t="str">
+      <c r="C62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:B8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:B8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:B8),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D60" s="1" t="str">
+      <c r="D62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:C8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:C8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:C8),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E60" s="1" t="str">
+      <c r="E62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:D8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:D8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:D8),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F60" s="1" t="str">
+      <c r="F62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:E8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:E8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:E8),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G60" s="7" t="str">
+      <c r="G62" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:F8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:F8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:F8),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H60" s="1" t="str">
+      <c r="H62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:G8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:G8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:G8),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I60" s="1" t="str">
+      <c r="I62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:H8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:H8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:H8),6),"")</f>
         <v/>
       </c>
-      <c r="J60" s="1" t="str">
+      <c r="J62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:I8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:I8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:I8),6),"")</f>
         <v/>
       </c>
-      <c r="K60" s="1" t="str">
+      <c r="K62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:J8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:J8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:J8),6),"")</f>
         <v/>
       </c>
-      <c r="L60" s="1" t="str">
+      <c r="L62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:K8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:K8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:K8),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="str">
+        <f>B9</f>
         <v>Nodarbošanās</v>
       </c>
-      <c r="C61" s="1" t="str">
+      <c r="C63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:B9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:B9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:B9),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D61" s="1" t="str">
+      <c r="D63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:C9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:C9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:C9),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E61" s="7" t="str">
+      <c r="E63" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:D9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:D9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:D9),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F61" s="1" t="str">
+      <c r="F63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:E9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:E9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:E9),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G61" s="1" t="str">
+      <c r="G63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:F9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:F9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:F9),6),"")</f>
         <v/>
       </c>
-      <c r="H61" s="1" t="str">
+      <c r="H63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:G9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:G9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:G9),6),"")</f>
         <v/>
       </c>
-      <c r="I61" s="1" t="str">
+      <c r="I63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:H9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:H9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:H9),6),"")</f>
         <v/>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="J63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:I9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:I9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:I9),6),"")</f>
         <v/>
       </c>
-      <c r="K61" s="1" t="str">
+      <c r="K63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:J9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:J9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:J9),6),"")</f>
         <v/>
       </c>
-      <c r="L61" s="1" t="str">
+      <c r="L63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:K9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:K9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:K9),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="str">
+        <f>B10</f>
         <v>Izcelsme</v>
       </c>
-      <c r="C62" s="1" t="str">
+      <c r="C64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:B10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:B10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:B10),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="D62" s="1" t="str">
+      <c r="D64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:C10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:C10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:C10),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E62" s="1" t="str">
+      <c r="E64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:D10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:D10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:D10),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F62" s="1" t="str">
+      <c r="F64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:E10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:E10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:E10),6),"")</f>
         <v/>
       </c>
-      <c r="G62" s="1" t="str">
+      <c r="G64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:F10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:F10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:F10),6),"")</f>
         <v/>
       </c>
-      <c r="H62" s="1" t="str">
+      <c r="H64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:G10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:G10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:G10),6),"")</f>
         <v/>
       </c>
-      <c r="I62" s="1" t="str">
+      <c r="I64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:H10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:H10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:H10),6),"")</f>
         <v/>
       </c>
-      <c r="J62" s="1" t="str">
+      <c r="J64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:I10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:I10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:I10),6),"")</f>
         <v/>
       </c>
-      <c r="K62" s="1" t="str">
+      <c r="K64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:J10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:J10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:J10),6),"")</f>
         <v/>
       </c>
-      <c r="L62" s="1" t="str">
+      <c r="L64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:K10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:K10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:K10),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="str">
+        <f>B11</f>
         <v>Amats</v>
       </c>
-      <c r="C63" s="1" t="str">
+      <c r="C65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:B11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:B11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:B11),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D63" s="1" t="str">
+      <c r="D65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:C11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:C11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:C11),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E63" s="1" t="str">
+      <c r="E65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:D11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:D11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:D11),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F63" s="1" t="str">
+      <c r="F65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:E11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:E11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:E11),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="G63" s="1" t="str">
+      <c r="G65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:F11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:F11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:F11),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H63" s="7" t="str">
+      <c r="H65" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:G11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:G11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:G11),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="I63" s="1" t="str">
+      <c r="I65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:H11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:H11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:H11),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J63" s="7" t="str">
+      <c r="J65" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:I11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:I11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:I11),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="K63" s="7" t="str">
+      <c r="K65" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:J11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:J11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:J11),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="L63" s="1" t="str">
+      <c r="L65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:K11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:K11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:K11),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="str">
+        <f>B12</f>
         <v>Darba_sākums</v>
       </c>
-      <c r="C64" s="1" t="str">
+      <c r="C66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:B12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:B12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:B12),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D64" s="1" t="str">
+      <c r="D66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:C12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:C12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:C12),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E64" s="1" t="str">
+      <c r="E66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:D12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:D12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:D12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F64" s="1" t="str">
+      <c r="F66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:E12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:E12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:E12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G64" s="1" t="str">
+      <c r="G66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:F12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:F12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:F12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H64" s="1" t="str">
+      <c r="H66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:G12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:G12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:G12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I64" s="7" t="str">
+      <c r="I66" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:H12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:H12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:H12),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="J64" s="1" t="str">
+      <c r="J66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:I12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:I12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:I12),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="K64" s="1" t="str">
+      <c r="K66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:J12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:J12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:J12),6),"")</f>
         <v/>
       </c>
-      <c r="L64" s="1" t="str">
+      <c r="L66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:K12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:K12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:K12),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="str">
+        <f>B13</f>
         <v>Darba_beigas</v>
       </c>
-      <c r="C65" s="1" t="str">
+      <c r="C67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:B13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:B13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:B13),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D65" s="1" t="str">
+      <c r="D67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:C13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:C13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:C13),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E65" s="1" t="str">
+      <c r="E67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:D13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:D13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:D13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F65" s="1" t="str">
+      <c r="F67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:E13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:E13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:E13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G65" s="1" t="str">
+      <c r="G67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:F13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:F13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:F13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H65" s="1" t="str">
+      <c r="H67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:G13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:G13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:G13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I65" s="7" t="str">
+      <c r="I67" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:H13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:H13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:H13),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="J65" s="1" t="str">
+      <c r="J67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:I13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:I13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:I13),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="K65" s="1" t="str">
+      <c r="K67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:J13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:J13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:J13),6),"")</f>
         <v/>
       </c>
-      <c r="L65" s="1" t="str">
+      <c r="L67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:K13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:K13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:K13),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="str">
+        <f>B14</f>
         <v>Dalība</v>
       </c>
-      <c r="C66" s="1" t="str">
+      <c r="C68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:B14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:B14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:B14),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D66" s="1" t="str">
+      <c r="D68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:C14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:C14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:C14),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E66" s="7" t="str">
+      <c r="E68" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:D14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:D14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:D14),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F66" s="1" t="str">
+      <c r="F68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:E14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:E14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:E14),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G66" s="1" t="str">
+      <c r="G68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:F14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:F14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:F14),6),"")</f>
         <v/>
       </c>
-      <c r="H66" s="1" t="str">
+      <c r="H68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:G14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:G14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:G14),6),"")</f>
         <v/>
       </c>
-      <c r="I66" s="1" t="str">
+      <c r="I68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:H14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:H14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:H14),6),"")</f>
         <v/>
       </c>
-      <c r="J66" s="1" t="str">
+      <c r="J68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:I14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:I14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:I14),6),"")</f>
         <v/>
       </c>
-      <c r="K66" s="1" t="str">
+      <c r="K68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:J14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:J14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:J14),6),"")</f>
         <v/>
       </c>
-      <c r="L66" s="1" t="str">
+      <c r="L68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:K14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:K14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:K14),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="str">
+        <f>B15</f>
         <v>Vēlēšanas</v>
       </c>
-      <c r="C67" s="1" t="str">
+      <c r="C69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:B15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:B15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:B15),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D67" s="1" t="str">
+      <c r="D69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:C15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:C15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:C15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E67" s="1" t="str">
+      <c r="E69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:D15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:D15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:D15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F67" s="1" t="str">
+      <c r="F69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:E15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:E15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:E15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G67" s="1" t="str">
+      <c r="G69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:F15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:F15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:F15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H67" s="7" t="str">
+      <c r="H69" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:G15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:G15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:G15),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="I67" s="1" t="str">
+      <c r="I69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:H15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:H15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:H15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J67" s="1" t="str">
+      <c r="J69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:I15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:I15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:I15),6),"")</f>
         <v/>
       </c>
-      <c r="K67" s="1" t="str">
+      <c r="K69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:J15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:J15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:J15),6),"")</f>
         <v/>
       </c>
-      <c r="L67" s="1" t="str">
+      <c r="L69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:K15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:K15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:K15),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="str">
+        <f>B16</f>
         <v>Atbalsts</v>
       </c>
-      <c r="C68" s="1" t="str">
+      <c r="C70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:B16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:B16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:B16),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D68" s="1" t="str">
+      <c r="D70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:C16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:C16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:C16),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E68" s="1" t="str">
+      <c r="E70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:D16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:D16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:D16),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F68" s="7" t="str">
+      <c r="F70" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:E16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:E16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:E16),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="G68" s="1" t="str">
+      <c r="G70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:F16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:F16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:F16),6),"")</f>
         <v/>
       </c>
-      <c r="H68" s="1" t="str">
+      <c r="H70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:G16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:G16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:G16),6),"")</f>
         <v/>
       </c>
-      <c r="I68" s="1" t="str">
+      <c r="I70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:H16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:H16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:H16),6),"")</f>
         <v/>
       </c>
-      <c r="J68" s="1" t="str">
+      <c r="J70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:I16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:I16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:I16),6),"")</f>
         <v/>
       </c>
-      <c r="K68" s="1" t="str">
+      <c r="K70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:J16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:J16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:J16),6),"")</f>
         <v/>
       </c>
-      <c r="L68" s="1" t="str">
+      <c r="L70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:K16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:K16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:K16),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="str">
+        <f>B17</f>
         <v>Dibināšana</v>
       </c>
-      <c r="C69" s="1" t="str">
+      <c r="C71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:B17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:B17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:B17),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D69" s="1" t="str">
+      <c r="D71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:C17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:C17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:C17),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E69" s="1" t="str">
+      <c r="E71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:D17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:D17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:D17),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F69" s="1" t="str">
+      <c r="F71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:E17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:E17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:E17),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G69" s="7" t="str">
+      <c r="G71" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:F17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:F17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:F17),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H69" s="1" t="str">
+      <c r="H71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:G17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:G17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:G17),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I69" s="1" t="str">
+      <c r="I71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:H17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:H17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:H17),6),"")</f>
         <v/>
       </c>
-      <c r="J69" s="1" t="str">
+      <c r="J71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:I17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:I17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:I17),6),"")</f>
         <v/>
       </c>
-      <c r="K69" s="1" t="str">
+      <c r="K71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:J17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:J17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:J17),6),"")</f>
         <v/>
       </c>
-      <c r="L69" s="1" t="str">
+      <c r="L71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:K17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:K17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:K17),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="str">
+        <f>B18</f>
         <v>Piedalīšanās</v>
       </c>
-      <c r="C70" s="1" t="str">
+      <c r="C72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:B18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:B18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:B18),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D70" s="1" t="str">
+      <c r="D72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:C18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:C18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:C18),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E70" s="7" t="str">
+      <c r="E72" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:D18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:D18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:D18),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F70" s="1" t="str">
+      <c r="F72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:E18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:E18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:E18),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G70" s="1" t="str">
+      <c r="G72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:F18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:F18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:F18),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H70" s="1" t="str">
+      <c r="H72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:G18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:G18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:G18),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="I70" s="1" t="str">
+      <c r="I72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:H18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:H18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:H18),6),"")</f>
         <v/>
       </c>
-      <c r="J70" s="1" t="str">
+      <c r="J72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:I18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:I18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:I18),6),"")</f>
         <v/>
       </c>
-      <c r="K70" s="1" t="str">
+      <c r="K72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:J18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:J18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:J18),6),"")</f>
         <v/>
       </c>
-      <c r="L70" s="1" t="str">
+      <c r="L72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:K18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:K18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:K18),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="str">
+        <f>B19</f>
         <v>Finanses</v>
       </c>
-      <c r="C71" s="1" t="str">
+      <c r="C73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:B19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:B19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:B19),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D71" s="1" t="str">
+      <c r="D73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:C19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:C19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:C19),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="E71" s="1" t="str">
+      <c r="E73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:D19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:D19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:D19),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F71" s="1" t="str">
+      <c r="F73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:E19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:E19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:E19),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="G71" s="7" t="str">
+      <c r="G73" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:F19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:F19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:F19),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H71" s="1" t="str">
+      <c r="H73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:G19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:G19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:G19),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I71" s="1" t="str">
+      <c r="I73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:H19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:H19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:H19),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="J71" s="1" t="str">
+      <c r="J73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:I19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:I19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:I19),6),"")</f>
         <v/>
       </c>
-      <c r="K71" s="1" t="str">
+      <c r="K73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:J19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:J19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:J19),6),"")</f>
         <v/>
       </c>
-      <c r="L71" s="1" t="str">
+      <c r="L73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:K19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:K19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:K19),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="str">
+        <f>B20</f>
         <v>Īpašums</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:B20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:B20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:B20),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D72" s="1" t="str">
+      <c r="D74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:C20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:C20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:C20),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E72" s="7" t="str">
+      <c r="E74" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:D20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:D20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:D20),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F72" s="1" t="str">
+      <c r="F74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:E20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:E20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:E20),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="G72" s="1" t="str">
+      <c r="G74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:F20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:F20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:F20),6),"")</f>
         <v/>
       </c>
-      <c r="H72" s="1" t="str">
+      <c r="H74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:G20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:G20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:G20),6),"")</f>
         <v/>
       </c>
-      <c r="I72" s="1" t="str">
+      <c r="I74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:H20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:H20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:H20),6),"")</f>
         <v/>
       </c>
-      <c r="J72" s="1" t="str">
+      <c r="J74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:I20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:I20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:I20),6),"")</f>
         <v/>
       </c>
-      <c r="K72" s="1" t="str">
+      <c r="K74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:J20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:J20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:J20),6),"")</f>
         <v/>
       </c>
-      <c r="L72" s="1" t="str">
+      <c r="L74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:K20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:K20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:K20),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="str">
+        <f>B21</f>
         <v>Parāds</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:B21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:B21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:B21),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D73" s="1" t="str">
+      <c r="D75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:C21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:C21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:C21),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E73" s="1" t="str">
+      <c r="E75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:D21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:D21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:D21),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="F73" s="1" t="str">
+      <c r="F75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:E21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:E21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:E21),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G73" s="7" t="str">
+      <c r="G75" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:F21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:F21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:F21),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H73" s="1" t="str">
+      <c r="H75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:G21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:G21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:G21),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I73" s="1" t="str">
+      <c r="I75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:H21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:H21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:H21),6),"")</f>
         <v/>
       </c>
-      <c r="J73" s="1" t="str">
+      <c r="J75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:I21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:I21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:I21),6),"")</f>
         <v/>
       </c>
-      <c r="K73" s="1" t="str">
+      <c r="K75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:J21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:J21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:J21),6),"")</f>
         <v/>
       </c>
-      <c r="L73" s="1" t="str">
+      <c r="L75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:K21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:K21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:K21),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="str">
+        <f>B22</f>
         <v>Tiesvedība</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:B22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:B22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:B22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D74" s="1" t="str">
+      <c r="D76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:C22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:C22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:C22),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E74" s="1" t="str">
+      <c r="E76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:D22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:D22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:D22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F74" s="1" t="str">
+      <c r="F76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:E22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:E22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:E22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="G74" s="1" t="str">
+      <c r="G76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:F22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:F22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:F22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="H74" s="1" t="str">
+      <c r="H76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:G22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:G22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:G22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="I74" s="1" t="str">
+      <c r="I76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:H22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:H22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:H22),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J74" s="7" t="str">
+      <c r="J76" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:I22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:I22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:I22),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="K74" s="1" t="str">
+      <c r="K76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:J22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:J22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:J22),6),"")</f>
         <v/>
       </c>
-      <c r="L74" s="1" t="str">
+      <c r="L76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:K22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:K22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:K22),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="str">
+        <f>B23</f>
         <v>Uzbrukums</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:B23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:B23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:B23),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D75" s="1" t="str">
+      <c r="D77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:C23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:C23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:C23),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E75" s="1" t="str">
+      <c r="E77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:D23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:D23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:D23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F75" s="1" t="str">
+      <c r="F77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:E23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:E23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:E23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G75" s="1" t="str">
+      <c r="G77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:F23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:F23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:F23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H75" s="1" t="str">
+      <c r="H77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:G23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:G23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:G23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I75" s="1" t="str">
+      <c r="I77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:H23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:H23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:H23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J75" s="1" t="str">
+      <c r="J77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:I23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:I23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:I23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="K75" s="1" t="str">
+      <c r="K77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:J23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:J23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:J23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="L75" s="7" t="str">
+      <c r="L77" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:K23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:K23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:K23),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="str">
+        <f>B24</f>
         <v>Sasniegums</v>
       </c>
-      <c r="C76" s="1" t="str">
+      <c r="C78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:B24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:B24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:B24),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D76" s="1" t="str">
+      <c r="D78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:C24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:C24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:C24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E76" s="1" t="str">
+      <c r="E78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:D24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:D24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:D24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F76" s="1" t="str">
+      <c r="F78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:E24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:E24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:E24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G76" s="1" t="str">
+      <c r="G78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:F24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:F24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:F24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H76" s="7" t="str">
+      <c r="H78" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:G24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:G24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:G24),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="I76" s="1" t="str">
+      <c r="I78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:H24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:H24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:H24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J76" s="1" t="str">
+      <c r="J78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:I24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:I24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:I24),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="K76" s="1" t="str">
+      <c r="K78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:J24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:J24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:J24),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="L76" s="1" t="str">
+      <c r="L78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:K24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:K24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:K24),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="str">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="str">
         <f>B25</f>
         <v>Ziņošana</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:B25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:B25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:B25),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D77" s="1" t="str">
+      <c r="D79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:C25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:C25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:C25),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E77" s="1" t="str">
+      <c r="E79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:D25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:D25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:D25),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F77" s="1" t="str">
+      <c r="F79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:E25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:E25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:E25),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G77" s="7" t="str">
+      <c r="G79" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:F25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:F25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:F25),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H77" s="1" t="str">
+      <c r="H79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:G25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:G25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:G25),6),"")</f>
         <v/>
       </c>
-      <c r="I77" s="1" t="str">
+      <c r="I79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:H25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:H25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:H25),6),"")</f>
         <v/>
       </c>
-      <c r="J77" s="1" t="str">
+      <c r="J79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:I25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:I25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:I25),6),"")</f>
         <v/>
       </c>
-      <c r="K77" s="1" t="str">
+      <c r="K79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:J25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:J25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:J25),6),"")</f>
         <v/>
       </c>
-      <c r="L77" s="1" t="str">
+      <c r="L79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:K25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:K25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:K25),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="str">
+        <f>B26</f>
+        <v>Publisks_Iepirkums</v>
+      </c>
+      <c r="C80" s="1">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),6),"")</f>
+        <v/>
+      </c>
+      <c r="J80" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),6),"")</f>
+        <v/>
+      </c>
+      <c r="K80" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:J26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:J26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:J26),6),"")</f>
+        <v/>
+      </c>
+      <c r="L80" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:K26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:K26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:K26),6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="str">
+        <f t="shared" ref="B81" si="1">B27</f>
         <v>Zīmols</v>
       </c>
-      <c r="C78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),6),"")</f>
+      <c r="C81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:B27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:B27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:B27),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="D78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),6),"")</f>
+      <c r="D81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:C27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:C27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:C27),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),6),"")</f>
+      <c r="E81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:D27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:D27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:D27),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),6),"")</f>
-        <v/>
-      </c>
-      <c r="G78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),6),"")</f>
-        <v/>
-      </c>
-      <c r="H78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),6),"")</f>
-        <v/>
-      </c>
-      <c r="I78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),6),"")</f>
-        <v/>
-      </c>
-      <c r="J78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),6),"")</f>
-        <v/>
-      </c>
-      <c r="K78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:J26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:J26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:J26),6),"")</f>
-        <v/>
-      </c>
-      <c r="L78" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:K26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:K26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:K26),6),"")</f>
+      <c r="F81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:E27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:E27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:E27),6),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:F27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:F27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:F27),6),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:G27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:G27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:G27),6),"")</f>
+        <v/>
+      </c>
+      <c r="I81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:H27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:H27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:H27),6),"")</f>
+        <v/>
+      </c>
+      <c r="J81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:I27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:I27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:I27),6),"")</f>
+        <v/>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:J27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:J27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:J27),6),"")</f>
+        <v/>
+      </c>
+      <c r="L81" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:K27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:K27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:K27),6),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:L26">
+  <conditionalFormatting sqref="C2:L25 C27:L27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:L26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/input/frames-new-modified.xlsx
+++ b/input/frames-new-modified.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="21840" windowHeight="13410" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="20580" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="frames-new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="306">
   <si>
     <t>Dzimšana</t>
   </si>
@@ -917,6 +917,27 @@
   </si>
   <si>
     <t>Darba_devējs</t>
+  </si>
+  <si>
+    <t>Nestrukturēts</t>
+  </si>
+  <si>
+    <t>Entītija, par kuru ir šis apgalvojums</t>
+  </si>
+  <si>
+    <t>Īpašība</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Patvaļīgs teksts</t>
+  </si>
+  <si>
+    <t>Kategorija</t>
+  </si>
+  <si>
+    <t>Teksts - zem kuras CV 'nodaļas' šis bija/jāliek</t>
   </si>
 </sst>
 </file>
@@ -1821,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N318"/>
+  <dimension ref="A1:N321"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView topLeftCell="A286" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7623,7 +7644,7 @@
         <v>5</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>270</v>
@@ -7636,8 +7657,11 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N294" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>267</v>
       </c>
@@ -7645,48 +7669,37 @@
         <v>5</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1" t="s">
-        <v>295</v>
+        <v>11</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
-      <c r="N295" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>267</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G296" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H296" s="5"/>
-      <c r="I296" s="5"/>
-      <c r="J296" s="5"/>
+      <c r="B296" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
@@ -7699,7 +7712,7 @@
         <v>19</v>
       </c>
       <c r="D297" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
@@ -7713,7 +7726,7 @@
         <v>19</v>
       </c>
       <c r="D298" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -7727,21 +7740,15 @@
         <v>19</v>
       </c>
       <c r="D299" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B300" t="s">
-        <v>18</v>
-      </c>
-      <c r="C300" t="s">
-        <v>19</v>
-      </c>
-      <c r="D300" t="s">
-        <v>275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
@@ -7749,7 +7756,19 @@
         <v>276</v>
       </c>
       <c r="B301" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>277</v>
+      </c>
+      <c r="E301" t="s">
+        <v>99</v>
+      </c>
+      <c r="F301" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -7763,13 +7782,7 @@
         <v>6</v>
       </c>
       <c r="D302" t="s">
-        <v>277</v>
-      </c>
-      <c r="E302" t="s">
-        <v>99</v>
-      </c>
-      <c r="F302" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -7783,7 +7796,7 @@
         <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
@@ -7797,7 +7810,13 @@
         <v>6</v>
       </c>
       <c r="D304" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="E304" t="s">
+        <v>83</v>
+      </c>
+      <c r="F304" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -7811,7 +7830,7 @@
         <v>6</v>
       </c>
       <c r="D305" t="s">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="E305" t="s">
         <v>83</v>
@@ -7831,13 +7850,7 @@
         <v>6</v>
       </c>
       <c r="D306" t="s">
-        <v>162</v>
-      </c>
-      <c r="E306" t="s">
-        <v>83</v>
-      </c>
-      <c r="F306" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
@@ -7848,10 +7861,16 @@
         <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D307" t="s">
-        <v>163</v>
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -7859,19 +7878,13 @@
         <v>276</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C308" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D308" t="s">
-        <v>11</v>
-      </c>
-      <c r="E308" t="s">
-        <v>12</v>
-      </c>
-      <c r="F308" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
@@ -7882,48 +7895,56 @@
         <v>18</v>
       </c>
       <c r="C309" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D309" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>276</v>
-      </c>
-      <c r="B310" t="s">
-        <v>18</v>
-      </c>
-      <c r="C310" t="s">
-        <v>19</v>
-      </c>
-      <c r="D310" t="s">
-        <v>281</v>
+      <c r="A310" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="4">
+        <v>3</v>
+      </c>
+      <c r="I310" s="4">
+        <v>3</v>
+      </c>
+      <c r="J310" s="4"/>
+      <c r="N310" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="4">
-        <v>3</v>
-      </c>
-      <c r="I311" s="4">
-        <v>3</v>
-      </c>
-      <c r="J311" s="4"/>
-      <c r="N311" t="s">
-        <v>283</v>
-      </c>
+      <c r="B311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
@@ -7936,16 +7957,23 @@
         <v>6</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G312" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
+      <c r="N312" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
@@ -7958,47 +7986,32 @@
         <v>6</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
       <c r="G313" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
       <c r="N313" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>282</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
-      <c r="G314" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H314" s="5"/>
-      <c r="I314" s="5"/>
-      <c r="J314" s="5"/>
-      <c r="N314" t="s">
-        <v>285</v>
+      <c r="B314" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" t="s">
+        <v>26</v>
+      </c>
+      <c r="D314" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
@@ -8012,7 +8025,7 @@
         <v>26</v>
       </c>
       <c r="D315" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -8023,10 +8036,10 @@
         <v>18</v>
       </c>
       <c r="C316" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D316" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
@@ -8040,21 +8053,102 @@
         <v>19</v>
       </c>
       <c r="D317" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B318" t="s">
-        <v>18</v>
-      </c>
-      <c r="C318" t="s">
-        <v>19</v>
-      </c>
-      <c r="D318" t="s">
-        <v>289</v>
+        <v>1</v>
+      </c>
+      <c r="H318"/>
+      <c r="I318" s="3">
+        <v>2</v>
+      </c>
+      <c r="J318" s="3">
+        <v>2</v>
+      </c>
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="N319" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+      <c r="N320" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="N321" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L81"/>
+  <dimension ref="A2:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9267,11 +9361,11 @@
       </c>
       <c r="F25" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:E25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:E25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:E25),3),"")</f>
-        <v>Ziņa</v>
+        <v>Laiks</v>
       </c>
       <c r="G25" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:F25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:F25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:F25),3),"")</f>
-        <v>Laiks</v>
+        <v/>
       </c>
       <c r="H25" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:G25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:G25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:G25),3),"")</f>
@@ -9296,40 +9390,40 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f ca="1">CELL("address",'frames-new'!A302)</f>
-        <v>'[frames-new-modified.xlsx]frames-new'!$A$302</v>
+        <f ca="1">CELL("address",'frames-new'!A300)</f>
+        <v>'[frames-new-modified.xlsx]frames-new'!$A$300</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>'frames-new'!$A$301</f>
+        <f>'frames-new'!$A$300</f>
         <v>Publisks_Iepirkums</v>
       </c>
       <c r="C26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),3),"")</f>
-        <v>Tēma</v>
+        <v>Iepircējs</v>
       </c>
       <c r="D26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),3),"")</f>
-        <v>Paredzētā_Summa</v>
+        <v>Tēma</v>
       </c>
       <c r="E26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),3),"")</f>
-        <v>Pretendenti</v>
+        <v>Paredzētā_Summa</v>
       </c>
       <c r="F26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),3),"")</f>
-        <v>Uzvarētājs</v>
+        <v>Pretendenti</v>
       </c>
       <c r="G26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),3),"")</f>
-        <v>Rezultāts</v>
+        <v>Uzvarētājs</v>
       </c>
       <c r="H26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),3),"")</f>
-        <v>Laiks</v>
+        <v>Rezultāts</v>
       </c>
       <c r="I26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),3),"")</f>
-        <v/>
+        <v>Laiks</v>
       </c>
       <c r="J26" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),3),"")</f>
@@ -9346,11 +9440,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f ca="1">CELL("address",'frames-new'!A311)</f>
-        <v>'[frames-new-modified.xlsx]frames-new'!$A$311</v>
+        <f ca="1">CELL("address",'frames-new'!A310)</f>
+        <v>'[frames-new-modified.xlsx]frames-new'!$A$310</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>'frames-new'!$A$311</f>
+        <f>'frames-new'!$A$310</f>
         <v>Zīmols</v>
       </c>
       <c r="C27" s="1" t="str">
@@ -9394,2398 +9488,2540 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="str">
-        <f>B2</f>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f ca="1">CELL("address",'frames-new'!A318)</f>
+        <v>'[frames-new-modified.xlsx]frames-new'!$A$318</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>'frames-new'!$A$318</f>
+        <v>Nestrukturēts</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:B28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:B28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:B28),3),"")</f>
+        <v>Entītija</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:C28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:C28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:C28),3),"")</f>
+        <v>Īpašība</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:D28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:D28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:D28),3),"")</f>
+        <v>Kategorija</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:E28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:E28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:E28),3),"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:F28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:F28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:F28),3),"")</f>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:G28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:G28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:G28),3),"")</f>
+        <v/>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:H28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:H28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:H28),3),"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:I28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:I28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:I28),3),"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:J28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:J28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:J28),3),"")</f>
+        <v/>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:K28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:K28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:K28),3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="str">
+        <f t="shared" ref="B30:B54" si="0">B2</f>
         <v>Dzimšana</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:B2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:B2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:B2),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:C2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:C2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:C2),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:D2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:D2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:D2),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="F30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:E2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:E2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:E2),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:F2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:F2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:F2),2),"")</f>
         <v/>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:G2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:G2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:G2),2),"")</f>
         <v/>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:H2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:H2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:H2),2),"")</f>
         <v/>
       </c>
-      <c r="J29" s="1" t="str">
+      <c r="J30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:I2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:I2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:I2),2),"")</f>
         <v/>
       </c>
-      <c r="K29" s="1" t="str">
+      <c r="K30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:J2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:J2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:J2),2),"")</f>
         <v/>
       </c>
-      <c r="L29" s="1" t="str">
+      <c r="L30" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:K2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:K2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:K2),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="str">
-        <f>B3</f>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Vecums</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:B3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:B3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:B3),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:C3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:C3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:C3),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:D3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:D3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:D3),2),"")</f>
         <v/>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="F31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:E3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:E3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:E3),2),"")</f>
         <v/>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:F3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:F3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:F3),2),"")</f>
         <v/>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="H31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:G3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:G3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:G3),2),"")</f>
         <v/>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="I31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:H3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:H3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:H3),2),"")</f>
         <v/>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="J31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:I3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:I3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:I3),2),"")</f>
         <v/>
       </c>
-      <c r="K30" s="1" t="str">
+      <c r="K31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:J3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:J3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:J3),2),"")</f>
         <v/>
       </c>
-      <c r="L30" s="1" t="str">
+      <c r="L31" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:K3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:K3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:K3),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="str">
-        <f>B4</f>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Miršana</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:B4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:B4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:B4),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:C4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:C4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:C4),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="E32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:D4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:D4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:D4),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:E4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:E4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:E4),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:F4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:F4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:F4),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:G4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:G4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:G4),2),"")</f>
         <v/>
       </c>
-      <c r="I31" s="1" t="str">
+      <c r="I32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:H4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:H4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:H4),2),"")</f>
         <v/>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="J32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:I4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:I4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:I4),2),"")</f>
         <v/>
       </c>
-      <c r="K31" s="1" t="str">
+      <c r="K32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:J4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:J4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:J4),2),"")</f>
         <v/>
       </c>
-      <c r="L31" s="1" t="str">
+      <c r="L32" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:K4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:K4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:K4),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="str">
-        <f>B5</f>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Attiecības</v>
       </c>
-      <c r="C32" s="1" t="str">
+      <c r="C33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:B5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:B5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:B5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:C5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:C5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:C5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="E33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:D5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:D5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:D5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:E5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:E5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:E5),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:F5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:F5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:F5),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:G5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:G5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:G5),2),"")</f>
         <v/>
       </c>
-      <c r="I32" s="1" t="str">
+      <c r="I33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:H5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:H5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:H5),2),"")</f>
         <v/>
       </c>
-      <c r="J32" s="1" t="str">
+      <c r="J33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:I5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:I5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:I5),2),"")</f>
         <v/>
       </c>
-      <c r="K32" s="1" t="str">
+      <c r="K33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:J5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:J5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:J5),2),"")</f>
         <v/>
       </c>
-      <c r="L32" s="1" t="str">
+      <c r="L33" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:K5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:K5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:K5),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="str">
-        <f>B6</f>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Vārds</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:B6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:B6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:B6),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:C6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:C6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:C6),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E33" s="1" t="str">
+      <c r="E34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:D6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:D6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:D6),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:E6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:E6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:E6),2),"")</f>
         <v/>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:F6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:F6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:F6),2),"")</f>
         <v/>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:G6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:G6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:G6),2),"")</f>
         <v/>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="I34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:H6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:H6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:H6),2),"")</f>
         <v/>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="J34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:I6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:I6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:I6),2),"")</f>
         <v/>
       </c>
-      <c r="K33" s="1" t="str">
+      <c r="K34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:J6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:J6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:J6),2),"")</f>
         <v/>
       </c>
-      <c r="L33" s="1" t="str">
+      <c r="L34" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:K6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:K6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:K6),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="str">
-        <f>B7</f>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Dzīvesvieta</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:B7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:B7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:B7),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:C7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:C7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:C7),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:D7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:D7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:D7),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:E7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:E7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:E7),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:F7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:F7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:F7),2),"")</f>
         <v/>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:G7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:G7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:G7),2),"")</f>
         <v/>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:H7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:H7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:H7),2),"")</f>
         <v/>
       </c>
-      <c r="J34" s="1" t="str">
+      <c r="J35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:I7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:I7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:I7),2),"")</f>
         <v/>
       </c>
-      <c r="K34" s="1" t="str">
+      <c r="K35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:J7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:J7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:J7),2),"")</f>
         <v/>
       </c>
-      <c r="L34" s="1" t="str">
+      <c r="L35" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:K7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:K7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:K7),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="str">
-        <f>B8</f>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Izglītība</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:B8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:B8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:B8),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="D36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:C8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:C8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:C8),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E35" s="1" t="str">
+      <c r="E36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:D8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:D8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:D8),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:E8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:E8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:E8),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G35" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:F8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:F8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:F8),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="H36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:G8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:G8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:G8),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I35" s="1" t="str">
+      <c r="I36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:H8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:H8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:H8),2),"")</f>
         <v/>
       </c>
-      <c r="J35" s="1" t="str">
+      <c r="J36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:I8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:I8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:I8),2),"")</f>
         <v/>
       </c>
-      <c r="K35" s="1" t="str">
+      <c r="K36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:J8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:J8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:J8),2),"")</f>
         <v/>
       </c>
-      <c r="L35" s="1" t="str">
+      <c r="L36" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:K8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:K8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:K8),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="str">
-        <f>B9</f>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nodarbošanās</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:B9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:B9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:B9),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D36" s="1" t="str">
+      <c r="D37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:C9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:C9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:C9),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E36" s="1" t="str">
+      <c r="E37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:D9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:D9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:D9),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:E9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:E9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:E9),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="G37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:F9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:F9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:F9),2),"")</f>
         <v/>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:G9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:G9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:G9),2),"")</f>
         <v/>
       </c>
-      <c r="I36" s="1" t="str">
+      <c r="I37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:H9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:H9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:H9),2),"")</f>
         <v/>
       </c>
-      <c r="J36" s="1" t="str">
+      <c r="J37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:I9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:I9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:I9),2),"")</f>
         <v/>
       </c>
-      <c r="K36" s="1" t="str">
+      <c r="K37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:J9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:J9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:J9),2),"")</f>
         <v/>
       </c>
-      <c r="L36" s="1" t="str">
+      <c r="L37" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:K9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:K9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:K9),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="str">
-        <f>B10</f>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Izcelsme</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:B10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:B10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:B10),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:C10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:C10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:C10),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E37" s="1" t="str">
+      <c r="E38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:D10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:D10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:D10),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:E10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:E10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:E10),2),"")</f>
         <v/>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="G38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:F10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:F10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:F10),2),"")</f>
         <v/>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:G10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:G10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:G10),2),"")</f>
         <v/>
       </c>
-      <c r="I37" s="1" t="str">
+      <c r="I38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:H10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:H10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:H10),2),"")</f>
         <v/>
       </c>
-      <c r="J37" s="1" t="str">
+      <c r="J38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:I10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:I10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:I10),2),"")</f>
         <v/>
       </c>
-      <c r="K37" s="1" t="str">
+      <c r="K38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:J10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:J10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:J10),2),"")</f>
         <v/>
       </c>
-      <c r="L37" s="1" t="str">
+      <c r="L38" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:K10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:K10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:K10),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="str">
-        <f>B11</f>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Amats</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:B11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:B11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:B11),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D38" s="1" t="str">
+      <c r="D39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:C11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:C11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:C11),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E38" s="1" t="str">
+      <c r="E39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:D11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:D11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:D11),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:E11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:E11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:E11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="G39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:F11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:F11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:F11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="H39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:G11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:G11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:G11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I38" s="1" t="str">
+      <c r="I39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:H11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:H11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:H11),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J38" s="1" t="str">
+      <c r="J39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:I11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:I11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:I11),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="K38" s="1" t="str">
+      <c r="K39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:J11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:J11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:J11),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="L38" s="1" t="str">
+      <c r="L39" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:K11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:K11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:K11),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="str">
-        <f>B12</f>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Darba_sākums</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:B12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:B12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:B12),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:C12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:C12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:C12),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E39" s="1" t="str">
+      <c r="E40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:D12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:D12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:D12),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:E12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:E12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:E12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:F12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:F12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:F12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:G12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:G12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:G12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I39" s="1" t="str">
+      <c r="I40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:H12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:H12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:H12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="J40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:I12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:I12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:I12),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K39" s="1" t="str">
+      <c r="K40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:J12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:J12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:J12),2),"")</f>
         <v/>
       </c>
-      <c r="L39" s="1" t="str">
+      <c r="L40" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:K12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:K12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:K12),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="str">
-        <f>B13</f>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Darba_beigas</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:B13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:B13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:B13),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:C13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:C13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:C13),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E40" s="1" t="str">
+      <c r="E41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:D13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:D13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:D13),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="F41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:E13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:E13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:E13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:F13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:F13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:F13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="H41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:G13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:G13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:G13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I40" s="1" t="str">
+      <c r="I41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:H13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:H13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:H13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J40" s="1" t="str">
+      <c r="J41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:I13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:I13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:I13),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K40" s="1" t="str">
+      <c r="K41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:J13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:J13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:J13),2),"")</f>
         <v/>
       </c>
-      <c r="L40" s="1" t="str">
+      <c r="L41" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:K13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:K13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:K13),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="str">
-        <f>B14</f>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Dalība</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:B14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:B14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:B14),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D41" s="1" t="str">
+      <c r="D42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:C14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:C14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:C14),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E41" s="1" t="str">
+      <c r="E42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:D14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:D14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:D14),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:E14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:E14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:E14),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="G42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:F14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:F14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:F14),2),"")</f>
         <v/>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="H42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:G14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:G14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:G14),2),"")</f>
         <v/>
       </c>
-      <c r="I41" s="1" t="str">
+      <c r="I42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:H14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:H14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:H14),2),"")</f>
         <v/>
       </c>
-      <c r="J41" s="1" t="str">
+      <c r="J42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:I14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:I14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:I14),2),"")</f>
         <v/>
       </c>
-      <c r="K41" s="1" t="str">
+      <c r="K42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:J14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:J14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:J14),2),"")</f>
         <v/>
       </c>
-      <c r="L41" s="1" t="str">
+      <c r="L42" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:K14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:K14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:K14),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="str">
-        <f>B15</f>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Vēlēšanas</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:B15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:B15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:B15),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D42" s="1" t="str">
+      <c r="D43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:C15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:C15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:C15),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E42" s="1" t="str">
+      <c r="E43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:D15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:D15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:D15),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:E15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:E15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:E15),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="G43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:F15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:F15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:F15),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="H43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:G15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:G15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:G15),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I42" s="1" t="str">
+      <c r="I43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:H15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:H15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:H15),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J42" s="1" t="str">
+      <c r="J43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:I15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:I15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:I15),2),"")</f>
         <v/>
       </c>
-      <c r="K42" s="1" t="str">
+      <c r="K43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:J15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:J15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:J15),2),"")</f>
         <v/>
       </c>
-      <c r="L42" s="1" t="str">
+      <c r="L43" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:K15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:K15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:K15),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="str">
-        <f>B16</f>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Atbalsts</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:B16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:B16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:B16),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:C16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:C16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:C16),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:D16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:D16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:D16),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:E16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:E16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:E16),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G43" s="1" t="str">
+      <c r="G44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:F16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:F16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:F16),2),"")</f>
         <v/>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:G16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:G16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:G16),2),"")</f>
         <v/>
       </c>
-      <c r="I43" s="1" t="str">
+      <c r="I44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:H16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:H16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:H16),2),"")</f>
         <v/>
       </c>
-      <c r="J43" s="1" t="str">
+      <c r="J44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:I16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:I16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:I16),2),"")</f>
         <v/>
       </c>
-      <c r="K43" s="1" t="str">
+      <c r="K44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:J16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:J16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:J16),2),"")</f>
         <v/>
       </c>
-      <c r="L43" s="1" t="str">
+      <c r="L44" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:K16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:K16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:K16),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="str">
-        <f>B17</f>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Dibināšana</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:B17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:B17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:B17),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:C17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:C17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:C17),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E44" s="1" t="str">
+      <c r="E45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:D17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:D17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:D17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="F45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:E17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:E17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:E17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G44" s="1" t="str">
+      <c r="G45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:F17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:F17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:F17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="H45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:G17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:G17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:G17),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I44" s="1" t="str">
+      <c r="I45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:H17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:H17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:H17),2),"")</f>
         <v/>
       </c>
-      <c r="J44" s="1" t="str">
+      <c r="J45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:I17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:I17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:I17),2),"")</f>
         <v/>
       </c>
-      <c r="K44" s="1" t="str">
+      <c r="K45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:J17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:J17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:J17),2),"")</f>
         <v/>
       </c>
-      <c r="L44" s="1" t="str">
+      <c r="L45" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:K17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:K17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:K17),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="str">
-        <f>B18</f>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Piedalīšanās</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:B18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:B18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:B18),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:C18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:C18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:C18),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E45" s="1" t="str">
+      <c r="E46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:D18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:D18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:D18),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F45" s="1" t="str">
+      <c r="F46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:E18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:E18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:E18),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G45" s="1" t="str">
+      <c r="G46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:F18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:F18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:F18),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="H46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:G18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:G18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:G18),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="I45" s="1" t="str">
+      <c r="I46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:H18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:H18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:H18),2),"")</f>
         <v/>
       </c>
-      <c r="J45" s="1" t="str">
+      <c r="J46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:I18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:I18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:I18),2),"")</f>
         <v/>
       </c>
-      <c r="K45" s="1" t="str">
+      <c r="K46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:J18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:J18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:J18),2),"")</f>
         <v/>
       </c>
-      <c r="L45" s="1" t="str">
+      <c r="L46" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:K18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:K18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:K18),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="str">
-        <f>B19</f>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Finanses</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:B19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:B19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:B19),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="D47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:C19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:C19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:C19),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E46" s="1" t="str">
+      <c r="E47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:D19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:D19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:D19),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="H47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:G19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:G19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:G19),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I46" s="1" t="str">
+      <c r="I47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:H19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:H19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:H19),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J46" s="1" t="str">
+      <c r="J47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:I19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:I19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:I19),2),"")</f>
         <v/>
       </c>
-      <c r="K46" s="1" t="str">
+      <c r="K47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:J19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:J19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:J19),2),"")</f>
         <v/>
       </c>
-      <c r="L46" s="1" t="str">
+      <c r="L47" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:K19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:K19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:K19),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="str">
-        <f>B20</f>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Īpašums</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:B20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:B20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:B20),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D47" s="1" t="str">
+      <c r="D48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:C20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:C20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:C20),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E47" s="1" t="str">
+      <c r="E48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:D20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:D20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:D20),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="F47" s="1" t="str">
+      <c r="F48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:E20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:E20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:E20),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G47" s="1" t="str">
+      <c r="G48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:F20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:F20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:F20),2),"")</f>
         <v/>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="H48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:G20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:G20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:G20),2),"")</f>
         <v/>
       </c>
-      <c r="I47" s="1" t="str">
+      <c r="I48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:H20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:H20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:H20),2),"")</f>
         <v/>
       </c>
-      <c r="J47" s="1" t="str">
+      <c r="J48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:I20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:I20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:I20),2),"")</f>
         <v/>
       </c>
-      <c r="K47" s="1" t="str">
+      <c r="K48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:J20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:J20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:J20),2),"")</f>
         <v/>
       </c>
-      <c r="L47" s="1" t="str">
+      <c r="L48" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:K20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:K20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:K20),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="str">
-        <f>B21</f>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Parāds</v>
       </c>
-      <c r="C48" s="1" t="str">
+      <c r="C49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:B21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:B21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:B21),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D48" s="1" t="str">
+      <c r="D49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:C21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:C21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:C21),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E48" s="1" t="str">
+      <c r="E49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:D21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:D21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:D21),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="F49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:E21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:E21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:E21),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G48" s="1" t="str">
+      <c r="G49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:F21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:F21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:F21),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="H49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:G21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:G21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:G21),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I48" s="1" t="str">
+      <c r="I49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:H21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:H21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:H21),2),"")</f>
         <v/>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="J49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:I21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:I21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:I21),2),"")</f>
         <v/>
       </c>
-      <c r="K48" s="1" t="str">
+      <c r="K49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:J21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:J21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:J21),2),"")</f>
         <v/>
       </c>
-      <c r="L48" s="1" t="str">
+      <c r="L49" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:K21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:K21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:K21),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="str">
-        <f>B22</f>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Tiesvedība</v>
       </c>
-      <c r="C49" s="1" t="str">
+      <c r="C50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:B22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:B22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:B22),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:C22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:C22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:C22),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F49" s="1" t="str">
+      <c r="F50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:E22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:E22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:E22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G49" s="1" t="str">
+      <c r="G50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:F22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:F22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:F22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="H50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:G22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:G22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:G22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I49" s="1" t="str">
+      <c r="I50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:H22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:H22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:H22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J49" s="1" t="str">
+      <c r="J50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:I22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:I22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:I22),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K49" s="1" t="str">
+      <c r="K50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:J22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:J22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:J22),2),"")</f>
         <v/>
       </c>
-      <c r="L49" s="1" t="str">
+      <c r="L50" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:K22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:K22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:K22),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="str">
-        <f>B23</f>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Uzbrukums</v>
       </c>
-      <c r="C50" s="1" t="str">
+      <c r="C51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:B23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:B23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:B23),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D50" s="1" t="str">
+      <c r="D51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:C23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:C23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:C23),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E50" s="1" t="str">
+      <c r="E51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:D23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:D23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:D23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F50" s="1" t="str">
+      <c r="F51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:E23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:E23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:E23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="G50" s="1" t="str">
+      <c r="G51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:F23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:F23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:F23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="H50" s="1" t="str">
+      <c r="H51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:G23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:G23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:G23),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="I50" s="1" t="str">
+      <c r="I51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:H23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:H23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:H23),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J50" s="1" t="str">
+      <c r="J51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:I23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:I23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:I23),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K50" s="1" t="str">
+      <c r="K51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:J23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:J23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:J23),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="L50" s="1" t="str">
+      <c r="L51" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:K23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:K23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:K23),2),"")</f>
         <v>Peripheral</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="str">
-        <f>B24</f>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Sasniegums</v>
       </c>
-      <c r="C51" s="1" t="str">
+      <c r="C52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:B24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:B24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:B24),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D51" s="1" t="str">
+      <c r="D52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:C24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:C24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:C24),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E51" s="1" t="str">
+      <c r="E52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:D24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:D24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:D24),2),"")</f>
         <v>Extra-Thematic</v>
       </c>
-      <c r="F51" s="1" t="str">
+      <c r="F52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:E24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:E24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:E24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="G51" s="1" t="str">
+      <c r="G52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:F24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:F24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:F24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="H52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:G24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:G24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:G24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I51" s="1" t="str">
+      <c r="I52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:H24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:H24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:H24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="J51" s="1" t="str">
+      <c r="J52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:I24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:I24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:I24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="K51" s="1" t="str">
+      <c r="K52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:J24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:J24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:J24),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="L51" s="1" t="str">
+      <c r="L52" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:K24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:K24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:K24),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="str">
-        <f>B25</f>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Ziņošana</v>
       </c>
-      <c r="C52" s="1" t="str">
+      <c r="C53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:B25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:B25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:B25),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D52" s="1" t="str">
+      <c r="D53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:C25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:C25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:C25),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E52" s="1" t="str">
+      <c r="E53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:D25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:D25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:D25),2),"")</f>
-        <v>Core</v>
-      </c>
-      <c r="F52" s="1" t="str">
+        <v>Extra-Thematic</v>
+      </c>
+      <c r="F53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:E25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:E25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:E25),2),"")</f>
-        <v>Extra-Thematic</v>
-      </c>
-      <c r="G52" s="1" t="str">
+        <v>Peripheral</v>
+      </c>
+      <c r="G53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:F25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:F25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:F25),2),"")</f>
-        <v>Peripheral</v>
-      </c>
-      <c r="H52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:G25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:G25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:G25),2),"")</f>
         <v/>
       </c>
-      <c r="I52" s="1" t="str">
+      <c r="I53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:H25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:H25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:H25),2),"")</f>
         <v/>
       </c>
-      <c r="J52" s="1" t="str">
+      <c r="J53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:I25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:I25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:I25),2),"")</f>
         <v/>
       </c>
-      <c r="K52" s="1" t="str">
+      <c r="K53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:J25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:J25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:J25),2),"")</f>
         <v/>
       </c>
-      <c r="L52" s="1" t="str">
+      <c r="L53" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:K25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:K25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:K25),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="str">
-        <f>B26</f>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Publisks_Iepirkums</v>
       </c>
-      <c r="C53" s="1" t="str">
+      <c r="C54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D53" s="1" t="str">
+      <c r="D54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E53" s="1" t="str">
+      <c r="E54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F53" s="1" t="str">
+      <c r="F54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="G53" s="1" t="str">
+      <c r="G54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="H53" s="1" t="str">
+      <c r="H54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),2),"")</f>
+        <v>Core</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),2),"")</f>
         <v>Peripheral</v>
       </c>
-      <c r="I53" s="1" t="str">
-        <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),2),"")</f>
-        <v/>
-      </c>
-      <c r="J53" s="1" t="str">
+      <c r="J54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),2),"")</f>
         <v/>
       </c>
-      <c r="K53" s="1" t="str">
+      <c r="K54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:J26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:J26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:J26),2),"")</f>
         <v/>
       </c>
-      <c r="L53" s="1" t="str">
+      <c r="L54" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:K26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:K26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:K26),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="str">
-        <f t="shared" ref="B54" si="0">B27</f>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="str">
+        <f t="shared" ref="B55:B56" si="1">B27</f>
         <v>Zīmols</v>
       </c>
-      <c r="C54" s="1" t="str">
+      <c r="C55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:B27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:B27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:B27),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="D54" s="1" t="str">
+      <c r="D55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:C27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:C27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:C27),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="E54" s="1" t="str">
+      <c r="E55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:D27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:D27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:D27),2),"")</f>
         <v>Core</v>
       </c>
-      <c r="F54" s="1" t="str">
+      <c r="F55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:E27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:E27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:E27),2),"")</f>
         <v/>
       </c>
-      <c r="G54" s="1" t="str">
+      <c r="G55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:F27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:F27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:F27),2),"")</f>
         <v/>
       </c>
-      <c r="H54" s="1" t="str">
+      <c r="H55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:G27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:G27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:G27),2),"")</f>
         <v/>
       </c>
-      <c r="I54" s="1" t="str">
+      <c r="I55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:H27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:H27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:H27),2),"")</f>
         <v/>
       </c>
-      <c r="J54" s="1" t="str">
+      <c r="J55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:I27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:I27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:I27),2),"")</f>
         <v/>
       </c>
-      <c r="K54" s="1" t="str">
+      <c r="K55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:J27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:J27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:J27),2),"")</f>
         <v/>
       </c>
-      <c r="L54" s="1" t="str">
+      <c r="L55" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:K27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:K27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:K27),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="str">
-        <f>B2</f>
+        <f t="shared" si="1"/>
+        <v>Nestrukturēts</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:B28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:B28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:B28),2),"")</f>
+        <v>Core</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:C28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:C28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:C28),2),"")</f>
+        <v>Core</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:D28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:D28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:D28),2),"")</f>
+        <v>Peripheral</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:E28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:E28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:E28),2),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:F28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:F28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:F28),2),"")</f>
+        <v/>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:G28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:G28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:G28),2),"")</f>
+        <v/>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:H28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:H28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:H28),2),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:I28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:I28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:I28),2),"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:J28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:J28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:J28),2),"")</f>
+        <v/>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:K28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:K28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:K28),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="str">
+        <f t="shared" ref="B58:B82" si="2">B2</f>
         <v>Dzimšana</v>
       </c>
-      <c r="C56" s="1" t="str">
+      <c r="C58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:B2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:B2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:B2),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D56" s="7" t="str">
+      <c r="D58" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:C2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:C2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:C2),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="E56" s="1" t="str">
+      <c r="E58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:D2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:D2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:D2),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F56" s="1" t="str">
+      <c r="F58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:E2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:E2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:E2),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G56" s="1" t="str">
+      <c r="G58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:F2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:F2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:F2),6),"")</f>
         <v/>
       </c>
-      <c r="H56" s="1" t="str">
+      <c r="H58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:G2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:G2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:G2),6),"")</f>
         <v/>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:H2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:H2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:H2),6),"")</f>
         <v/>
       </c>
-      <c r="J56" s="1" t="str">
+      <c r="J58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:I2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:I2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:I2),6),"")</f>
         <v/>
       </c>
-      <c r="K56" s="1" t="str">
+      <c r="K58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:J2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:J2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:J2),6),"")</f>
         <v/>
       </c>
-      <c r="L56" s="1" t="str">
+      <c r="L58" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A2), COUNTA($B2:K2),0)=$B2, OFFSET(INDIRECT($A2), COUNTA($B2:K2),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A2), COUNTA($B2:K2),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="str">
-        <f>B3</f>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Vecums</v>
       </c>
-      <c r="C57" s="1" t="str">
+      <c r="C59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:B3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:B3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:B3),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D57" s="1" t="str">
+      <c r="D59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:C3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:C3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:C3),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="E57" s="1" t="str">
+      <c r="E59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:D3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:D3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:D3),6),"")</f>
         <v/>
       </c>
-      <c r="F57" s="1" t="str">
+      <c r="F59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:E3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:E3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:E3),6),"")</f>
         <v/>
       </c>
-      <c r="G57" s="1" t="str">
+      <c r="G59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:F3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:F3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:F3),6),"")</f>
         <v/>
       </c>
-      <c r="H57" s="1" t="str">
+      <c r="H59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:G3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:G3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:G3),6),"")</f>
         <v/>
       </c>
-      <c r="I57" s="1" t="str">
+      <c r="I59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:H3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:H3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:H3),6),"")</f>
         <v/>
       </c>
-      <c r="J57" s="1" t="str">
+      <c r="J59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:I3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:I3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:I3),6),"")</f>
         <v/>
       </c>
-      <c r="K57" s="1" t="str">
+      <c r="K59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:J3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:J3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:J3),6),"")</f>
         <v/>
       </c>
-      <c r="L57" s="1" t="str">
+      <c r="L59" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A3), COUNTA($B3:K3),0)=$B3, OFFSET(INDIRECT($A3), COUNTA($B3:K3),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A3), COUNTA($B3:K3),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="str">
-        <f>B4</f>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Miršana</v>
       </c>
-      <c r="C58" s="1" t="str">
+      <c r="C60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:B4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:B4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:B4),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D58" s="7" t="str">
+      <c r="D60" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:C4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:C4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:C4),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="E58" s="1" t="str">
+      <c r="E60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:D4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:D4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:D4),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F58" s="1" t="str">
+      <c r="F60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:E4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:E4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:E4),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G58" s="1" t="str">
+      <c r="G60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:F4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:F4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:F4),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H58" s="1" t="str">
+      <c r="H60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:G4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:G4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:G4),6),"")</f>
         <v/>
       </c>
-      <c r="I58" s="1" t="str">
+      <c r="I60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:H4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:H4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:H4),6),"")</f>
         <v/>
       </c>
-      <c r="J58" s="1" t="str">
+      <c r="J60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:I4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:I4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:I4),6),"")</f>
         <v/>
       </c>
-      <c r="K58" s="1" t="str">
+      <c r="K60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:J4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:J4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:J4),6),"")</f>
         <v/>
       </c>
-      <c r="L58" s="1" t="str">
+      <c r="L60" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A4), COUNTA($B4:K4),0)=$B4, OFFSET(INDIRECT($A4), COUNTA($B4:K4),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A4), COUNTA($B4:K4),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="str">
-        <f>B5</f>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Attiecības</v>
       </c>
-      <c r="C59" s="1" t="str">
+      <c r="C61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:B5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:B5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:B5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D59" s="1" t="str">
+      <c r="D61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:C5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:C5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:C5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E59" s="1" t="str">
+      <c r="E61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:D5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:D5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:D5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F59" s="1" t="str">
+      <c r="F61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:E5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:E5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:E5),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="G59" s="7" t="str">
+      <c r="G61" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:F5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:F5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:F5),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H59" s="1" t="str">
+      <c r="H61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:G5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:G5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:G5),6),"")</f>
         <v/>
       </c>
-      <c r="I59" s="1" t="str">
+      <c r="I61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:H5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:H5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:H5),6),"")</f>
         <v/>
       </c>
-      <c r="J59" s="1" t="str">
+      <c r="J61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:I5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:I5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:I5),6),"")</f>
         <v/>
       </c>
-      <c r="K59" s="1" t="str">
+      <c r="K61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:J5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:J5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:J5),6),"")</f>
         <v/>
       </c>
-      <c r="L59" s="1" t="str">
+      <c r="L61" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A5), COUNTA($B5:K5),0)=$B5, OFFSET(INDIRECT($A5), COUNTA($B5:K5),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A5), COUNTA($B5:K5),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="str">
-        <f>B6</f>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Vārds</v>
       </c>
-      <c r="C60" s="1" t="str">
+      <c r="C62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:B6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:B6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:B6),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="D60" s="1" t="str">
+      <c r="D62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:C6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:C6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:C6),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E60" s="1" t="str">
+      <c r="E62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:D6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:D6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:D6),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F60" s="1" t="str">
+      <c r="F62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:E6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:E6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:E6),6),"")</f>
         <v/>
       </c>
-      <c r="G60" s="1" t="str">
+      <c r="G62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:F6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:F6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:F6),6),"")</f>
         <v/>
       </c>
-      <c r="H60" s="1" t="str">
+      <c r="H62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:G6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:G6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:G6),6),"")</f>
         <v/>
       </c>
-      <c r="I60" s="1" t="str">
+      <c r="I62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:H6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:H6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:H6),6),"")</f>
         <v/>
       </c>
-      <c r="J60" s="1" t="str">
+      <c r="J62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:I6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:I6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:I6),6),"")</f>
         <v/>
       </c>
-      <c r="K60" s="1" t="str">
+      <c r="K62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:J6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:J6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:J6),6),"")</f>
         <v/>
       </c>
-      <c r="L60" s="1" t="str">
+      <c r="L62" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A6), COUNTA($B6:K6),0)=$B6, OFFSET(INDIRECT($A6), COUNTA($B6:K6),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A6), COUNTA($B6:K6),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="str">
-        <f>B7</f>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Dzīvesvieta</v>
       </c>
-      <c r="C61" s="1" t="str">
+      <c r="C63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:B7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:B7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:B7),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D61" s="1" t="str">
+      <c r="D63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:C7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:C7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:C7),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E61" s="1" t="str">
+      <c r="E63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:D7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:D7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:D7),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F61" s="1" t="str">
+      <c r="F63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:E7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:E7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:E7),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G61" s="1" t="str">
+      <c r="G63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:F7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:F7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:F7),6),"")</f>
         <v/>
       </c>
-      <c r="H61" s="1" t="str">
+      <c r="H63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:G7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:G7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:G7),6),"")</f>
         <v/>
       </c>
-      <c r="I61" s="1" t="str">
+      <c r="I63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:H7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:H7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:H7),6),"")</f>
         <v/>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="J63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:I7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:I7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:I7),6),"")</f>
         <v/>
       </c>
-      <c r="K61" s="1" t="str">
+      <c r="K63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:J7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:J7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:J7),6),"")</f>
         <v/>
       </c>
-      <c r="L61" s="1" t="str">
+      <c r="L63" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A7), COUNTA($B7:K7),0)=$B7, OFFSET(INDIRECT($A7), COUNTA($B7:K7),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A7), COUNTA($B7:K7),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="str">
-        <f>B8</f>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Izglītība</v>
       </c>
-      <c r="C62" s="1" t="str">
+      <c r="C64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:B8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:B8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:B8),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D62" s="1" t="str">
+      <c r="D64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:C8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:C8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:C8),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E62" s="1" t="str">
+      <c r="E64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:D8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:D8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:D8),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F62" s="1" t="str">
+      <c r="F64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:E8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:E8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:E8),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G62" s="7" t="str">
+      <c r="G64" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:F8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:F8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:F8),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H62" s="1" t="str">
+      <c r="H64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:G8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:G8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:G8),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I62" s="1" t="str">
+      <c r="I64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:H8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:H8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:H8),6),"")</f>
         <v/>
       </c>
-      <c r="J62" s="1" t="str">
+      <c r="J64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:I8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:I8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:I8),6),"")</f>
         <v/>
       </c>
-      <c r="K62" s="1" t="str">
+      <c r="K64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:J8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:J8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:J8),6),"")</f>
         <v/>
       </c>
-      <c r="L62" s="1" t="str">
+      <c r="L64" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A8), COUNTA($B8:K8),0)=$B8, OFFSET(INDIRECT($A8), COUNTA($B8:K8),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A8), COUNTA($B8:K8),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="str">
-        <f>B9</f>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Nodarbošanās</v>
       </c>
-      <c r="C63" s="1" t="str">
+      <c r="C65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:B9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:B9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:B9),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D63" s="1" t="str">
+      <c r="D65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:C9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:C9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:C9),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E63" s="7" t="str">
+      <c r="E65" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:D9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:D9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:D9),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F63" s="1" t="str">
+      <c r="F65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:E9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:E9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:E9),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G63" s="1" t="str">
+      <c r="G65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:F9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:F9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:F9),6),"")</f>
         <v/>
       </c>
-      <c r="H63" s="1" t="str">
+      <c r="H65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:G9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:G9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:G9),6),"")</f>
         <v/>
       </c>
-      <c r="I63" s="1" t="str">
+      <c r="I65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:H9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:H9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:H9),6),"")</f>
         <v/>
       </c>
-      <c r="J63" s="1" t="str">
+      <c r="J65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:I9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:I9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:I9),6),"")</f>
         <v/>
       </c>
-      <c r="K63" s="1" t="str">
+      <c r="K65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:J9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:J9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:J9),6),"")</f>
         <v/>
       </c>
-      <c r="L63" s="1" t="str">
+      <c r="L65" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A9), COUNTA($B9:K9),0)=$B9, OFFSET(INDIRECT($A9), COUNTA($B9:K9),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A9), COUNTA($B9:K9),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="str">
-        <f>B10</f>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Izcelsme</v>
       </c>
-      <c r="C64" s="1" t="str">
+      <c r="C66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:B10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:B10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:B10),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="D64" s="1" t="str">
+      <c r="D66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:C10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:C10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:C10),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E64" s="1" t="str">
+      <c r="E66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:D10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:D10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:D10),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F64" s="1" t="str">
+      <c r="F66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:E10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:E10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:E10),6),"")</f>
         <v/>
       </c>
-      <c r="G64" s="1" t="str">
+      <c r="G66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:F10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:F10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:F10),6),"")</f>
         <v/>
       </c>
-      <c r="H64" s="1" t="str">
+      <c r="H66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:G10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:G10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:G10),6),"")</f>
         <v/>
       </c>
-      <c r="I64" s="1" t="str">
+      <c r="I66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:H10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:H10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:H10),6),"")</f>
         <v/>
       </c>
-      <c r="J64" s="1" t="str">
+      <c r="J66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:I10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:I10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:I10),6),"")</f>
         <v/>
       </c>
-      <c r="K64" s="1" t="str">
+      <c r="K66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:J10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:J10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:J10),6),"")</f>
         <v/>
       </c>
-      <c r="L64" s="1" t="str">
+      <c r="L66" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A10), COUNTA($B10:K10),0)=$B10, OFFSET(INDIRECT($A10), COUNTA($B10:K10),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A10), COUNTA($B10:K10),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="str">
-        <f>B11</f>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Amats</v>
       </c>
-      <c r="C65" s="1" t="str">
+      <c r="C67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:B11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:B11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:B11),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D65" s="1" t="str">
+      <c r="D67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:C11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:C11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:C11),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E65" s="1" t="str">
+      <c r="E67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:D11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:D11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:D11),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F65" s="1" t="str">
+      <c r="F67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:E11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:E11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:E11),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="G65" s="1" t="str">
+      <c r="G67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:F11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:F11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:F11),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H65" s="7" t="str">
+      <c r="H67" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:G11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:G11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:G11),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="I65" s="1" t="str">
+      <c r="I67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:H11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:H11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:H11),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J65" s="7" t="str">
+      <c r="J67" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:I11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:I11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:I11),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="K65" s="7" t="str">
+      <c r="K67" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:J11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:J11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:J11),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="L65" s="1" t="str">
+      <c r="L67" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A11), COUNTA($B11:K11),0)=$B11, OFFSET(INDIRECT($A11), COUNTA($B11:K11),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A11), COUNTA($B11:K11),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="str">
-        <f>B12</f>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Darba_sākums</v>
       </c>
-      <c r="C66" s="1" t="str">
+      <c r="C68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:B12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:B12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:B12),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D66" s="1" t="str">
+      <c r="D68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:C12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:C12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:C12),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E66" s="1" t="str">
+      <c r="E68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:D12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:D12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:D12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F66" s="1" t="str">
+      <c r="F68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:E12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:E12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:E12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G66" s="1" t="str">
+      <c r="G68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:F12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:F12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:F12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H66" s="1" t="str">
+      <c r="H68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:G12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:G12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:G12),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I66" s="7" t="str">
+      <c r="I68" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:H12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:H12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:H12),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="J66" s="1" t="str">
+      <c r="J68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:I12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:I12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:I12),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="K66" s="1" t="str">
+      <c r="K68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:J12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:J12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:J12),6),"")</f>
         <v/>
       </c>
-      <c r="L66" s="1" t="str">
+      <c r="L68" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A12), COUNTA($B12:K12),0)=$B12, OFFSET(INDIRECT($A12), COUNTA($B12:K12),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A12), COUNTA($B12:K12),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="str">
-        <f>B13</f>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Darba_beigas</v>
       </c>
-      <c r="C67" s="1" t="str">
+      <c r="C69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:B13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:B13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:B13),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D67" s="1" t="str">
+      <c r="D69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:C13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:C13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:C13),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E67" s="1" t="str">
+      <c r="E69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:D13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:D13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:D13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F67" s="1" t="str">
+      <c r="F69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:E13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:E13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:E13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G67" s="1" t="str">
+      <c r="G69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:F13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:F13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:F13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H67" s="1" t="str">
+      <c r="H69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:G13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:G13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:G13),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I67" s="7" t="str">
+      <c r="I69" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:H13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:H13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:H13),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="J67" s="1" t="str">
+      <c r="J69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:I13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:I13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:I13),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="K67" s="1" t="str">
+      <c r="K69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:J13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:J13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:J13),6),"")</f>
         <v/>
       </c>
-      <c r="L67" s="1" t="str">
+      <c r="L69" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A13), COUNTA($B13:K13),0)=$B13, OFFSET(INDIRECT($A13), COUNTA($B13:K13),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A13), COUNTA($B13:K13),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="str">
-        <f>B14</f>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Dalība</v>
       </c>
-      <c r="C68" s="1" t="str">
+      <c r="C70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:B14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:B14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:B14),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D68" s="1" t="str">
+      <c r="D70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:C14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:C14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:C14),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E68" s="7" t="str">
+      <c r="E70" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:D14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:D14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:D14),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F68" s="1" t="str">
+      <c r="F70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:E14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:E14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:E14),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G68" s="1" t="str">
+      <c r="G70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:F14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:F14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:F14),6),"")</f>
         <v/>
       </c>
-      <c r="H68" s="1" t="str">
+      <c r="H70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:G14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:G14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:G14),6),"")</f>
         <v/>
       </c>
-      <c r="I68" s="1" t="str">
+      <c r="I70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:H14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:H14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:H14),6),"")</f>
         <v/>
       </c>
-      <c r="J68" s="1" t="str">
+      <c r="J70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:I14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:I14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:I14),6),"")</f>
         <v/>
       </c>
-      <c r="K68" s="1" t="str">
+      <c r="K70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:J14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:J14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:J14),6),"")</f>
         <v/>
       </c>
-      <c r="L68" s="1" t="str">
+      <c r="L70" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A14), COUNTA($B14:K14),0)=$B14, OFFSET(INDIRECT($A14), COUNTA($B14:K14),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A14), COUNTA($B14:K14),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="str">
-        <f>B15</f>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Vēlēšanas</v>
       </c>
-      <c r="C69" s="1" t="str">
+      <c r="C71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:B15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:B15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:B15),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D69" s="1" t="str">
+      <c r="D71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:C15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:C15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:C15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E69" s="1" t="str">
+      <c r="E71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:D15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:D15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:D15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F69" s="1" t="str">
+      <c r="F71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:E15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:E15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:E15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G69" s="1" t="str">
+      <c r="G71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:F15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:F15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:F15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H69" s="7" t="str">
+      <c r="H71" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:G15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:G15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:G15),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="I69" s="1" t="str">
+      <c r="I71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:H15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:H15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:H15),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J69" s="1" t="str">
+      <c r="J71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:I15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:I15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:I15),6),"")</f>
         <v/>
       </c>
-      <c r="K69" s="1" t="str">
+      <c r="K71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:J15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:J15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:J15),6),"")</f>
         <v/>
       </c>
-      <c r="L69" s="1" t="str">
+      <c r="L71" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A15), COUNTA($B15:K15),0)=$B15, OFFSET(INDIRECT($A15), COUNTA($B15:K15),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A15), COUNTA($B15:K15),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="str">
-        <f>B16</f>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Atbalsts</v>
       </c>
-      <c r="C70" s="1" t="str">
+      <c r="C72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:B16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:B16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:B16),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D70" s="1" t="str">
+      <c r="D72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:C16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:C16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:C16),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E70" s="1" t="str">
+      <c r="E72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:D16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:D16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:D16),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F70" s="7" t="str">
+      <c r="F72" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:E16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:E16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:E16),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="G70" s="1" t="str">
+      <c r="G72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:F16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:F16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:F16),6),"")</f>
         <v/>
       </c>
-      <c r="H70" s="1" t="str">
+      <c r="H72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:G16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:G16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:G16),6),"")</f>
         <v/>
       </c>
-      <c r="I70" s="1" t="str">
+      <c r="I72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:H16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:H16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:H16),6),"")</f>
         <v/>
       </c>
-      <c r="J70" s="1" t="str">
+      <c r="J72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:I16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:I16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:I16),6),"")</f>
         <v/>
       </c>
-      <c r="K70" s="1" t="str">
+      <c r="K72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:J16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:J16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:J16),6),"")</f>
         <v/>
       </c>
-      <c r="L70" s="1" t="str">
+      <c r="L72" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A16), COUNTA($B16:K16),0)=$B16, OFFSET(INDIRECT($A16), COUNTA($B16:K16),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A16), COUNTA($B16:K16),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="str">
-        <f>B17</f>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Dibināšana</v>
       </c>
-      <c r="C71" s="1" t="str">
+      <c r="C73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:B17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:B17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:B17),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D71" s="1" t="str">
+      <c r="D73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:C17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:C17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:C17),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E71" s="1" t="str">
+      <c r="E73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:D17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:D17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:D17),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F71" s="1" t="str">
+      <c r="F73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:E17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:E17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:E17),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G71" s="7" t="str">
+      <c r="G73" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:F17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:F17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:F17),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H71" s="1" t="str">
+      <c r="H73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:G17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:G17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:G17),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I71" s="1" t="str">
+      <c r="I73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:H17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:H17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:H17),6),"")</f>
         <v/>
       </c>
-      <c r="J71" s="1" t="str">
+      <c r="J73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:I17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:I17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:I17),6),"")</f>
         <v/>
       </c>
-      <c r="K71" s="1" t="str">
+      <c r="K73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:J17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:J17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:J17),6),"")</f>
         <v/>
       </c>
-      <c r="L71" s="1" t="str">
+      <c r="L73" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A17), COUNTA($B17:K17),0)=$B17, OFFSET(INDIRECT($A17), COUNTA($B17:K17),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A17), COUNTA($B17:K17),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="str">
-        <f>B18</f>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Piedalīšanās</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:B18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:B18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:B18),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D72" s="1" t="str">
+      <c r="D74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:C18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:C18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:C18),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E72" s="7" t="str">
+      <c r="E74" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:D18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:D18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:D18),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F72" s="1" t="str">
+      <c r="F74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:E18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:E18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:E18),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G72" s="1" t="str">
+      <c r="G74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:F18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:F18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:F18),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H72" s="1" t="str">
+      <c r="H74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:G18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:G18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:G18),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="I72" s="1" t="str">
+      <c r="I74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:H18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:H18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:H18),6),"")</f>
         <v/>
       </c>
-      <c r="J72" s="1" t="str">
+      <c r="J74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:I18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:I18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:I18),6),"")</f>
         <v/>
       </c>
-      <c r="K72" s="1" t="str">
+      <c r="K74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:J18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:J18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:J18),6),"")</f>
         <v/>
       </c>
-      <c r="L72" s="1" t="str">
+      <c r="L74" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A18), COUNTA($B18:K18),0)=$B18, OFFSET(INDIRECT($A18), COUNTA($B18:K18),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A18), COUNTA($B18:K18),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="str">
-        <f>B19</f>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Finanses</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:B19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:B19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:B19),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D73" s="1" t="str">
+      <c r="D75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:C19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:C19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:C19),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="E73" s="1" t="str">
+      <c r="E75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:D19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:D19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:D19),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F73" s="1" t="str">
+      <c r="F75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:E19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:E19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:E19),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="G73" s="7" t="str">
+      <c r="G75" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:F19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:F19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:F19),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H73" s="1" t="str">
+      <c r="H75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:G19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:G19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:G19),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I73" s="1" t="str">
+      <c r="I75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:H19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:H19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:H19),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="J73" s="1" t="str">
+      <c r="J75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:I19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:I19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:I19),6),"")</f>
         <v/>
       </c>
-      <c r="K73" s="1" t="str">
+      <c r="K75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:J19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:J19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:J19),6),"")</f>
         <v/>
       </c>
-      <c r="L73" s="1" t="str">
+      <c r="L75" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A19), COUNTA($B19:K19),0)=$B19, OFFSET(INDIRECT($A19), COUNTA($B19:K19),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A19), COUNTA($B19:K19),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="str">
-        <f>B20</f>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Īpašums</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:B20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:B20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:B20),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D74" s="1" t="str">
+      <c r="D76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:C20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:C20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:C20),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E74" s="7" t="str">
+      <c r="E76" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:D20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:D20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:D20),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="F74" s="1" t="str">
+      <c r="F76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:E20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:E20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:E20),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="G74" s="1" t="str">
+      <c r="G76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:F20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:F20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:F20),6),"")</f>
         <v/>
       </c>
-      <c r="H74" s="1" t="str">
+      <c r="H76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:G20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:G20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:G20),6),"")</f>
         <v/>
       </c>
-      <c r="I74" s="1" t="str">
+      <c r="I76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:H20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:H20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:H20),6),"")</f>
         <v/>
       </c>
-      <c r="J74" s="1" t="str">
+      <c r="J76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:I20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:I20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:I20),6),"")</f>
         <v/>
       </c>
-      <c r="K74" s="1" t="str">
+      <c r="K76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:J20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:J20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:J20),6),"")</f>
         <v/>
       </c>
-      <c r="L74" s="1" t="str">
+      <c r="L76" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A20), COUNTA($B20:K20),0)=$B20, OFFSET(INDIRECT($A20), COUNTA($B20:K20),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A20), COUNTA($B20:K20),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="str">
-        <f>B21</f>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Parāds</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:B21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:B21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:B21),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D75" s="1" t="str">
+      <c r="D77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:C21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:C21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:C21),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E75" s="1" t="str">
+      <c r="E77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:D21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:D21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:D21),6),"")</f>
         <v>int vai EID</v>
       </c>
-      <c r="F75" s="1" t="str">
+      <c r="F77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:E21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:E21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:E21),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G75" s="7" t="str">
+      <c r="G77" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:F21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:F21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:F21),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="H75" s="1" t="str">
+      <c r="H77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:G21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:G21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:G21),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I75" s="1" t="str">
+      <c r="I77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:H21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:H21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:H21),6),"")</f>
         <v/>
       </c>
-      <c r="J75" s="1" t="str">
+      <c r="J77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:I21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:I21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:I21),6),"")</f>
         <v/>
       </c>
-      <c r="K75" s="1" t="str">
+      <c r="K77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:J21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:J21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:J21),6),"")</f>
         <v/>
       </c>
-      <c r="L75" s="1" t="str">
+      <c r="L77" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A21), COUNTA($B21:K21),0)=$B21, OFFSET(INDIRECT($A21), COUNTA($B21:K21),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A21), COUNTA($B21:K21),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="str">
-        <f>B22</f>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Tiesvedība</v>
       </c>
-      <c r="C76" s="1" t="str">
+      <c r="C78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:B22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:B22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:B22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D76" s="1" t="str">
+      <c r="D78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:C22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:C22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:C22),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E76" s="1" t="str">
+      <c r="E78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:D22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:D22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:D22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="F76" s="1" t="str">
+      <c r="F78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:E22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:E22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:E22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="G76" s="1" t="str">
+      <c r="G78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:F22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:F22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:F22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="H76" s="1" t="str">
+      <c r="H78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:G22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:G22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:G22),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="I76" s="1" t="str">
+      <c r="I78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:H22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:H22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:H22),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J76" s="7" t="str">
+      <c r="J78" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:I22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:I22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:I22),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="K76" s="1" t="str">
+      <c r="K78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:J22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:J22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:J22),6),"")</f>
         <v/>
       </c>
-      <c r="L76" s="1" t="str">
+      <c r="L78" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A22), COUNTA($B22:K22),0)=$B22, OFFSET(INDIRECT($A22), COUNTA($B22:K22),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A22), COUNTA($B22:K22),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="str">
-        <f>B23</f>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Uzbrukums</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:B23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:B23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:B23),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D77" s="1" t="str">
+      <c r="D79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:C23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:C23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:C23),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E77" s="1" t="str">
+      <c r="E79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:D23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:D23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:D23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F77" s="1" t="str">
+      <c r="F79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:E23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:E23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:E23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G77" s="1" t="str">
+      <c r="G79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:F23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:F23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:F23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H77" s="1" t="str">
+      <c r="H79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:G23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:G23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:G23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="I77" s="1" t="str">
+      <c r="I79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:H23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:H23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:H23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J77" s="1" t="str">
+      <c r="J79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:I23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:I23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:I23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="K77" s="1" t="str">
+      <c r="K79" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:J23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:J23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:J23),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="L77" s="7" t="str">
+      <c r="L79" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A23), COUNTA($B23:K23),0)=$B23, OFFSET(INDIRECT($A23), COUNTA($B23:K23),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A23), COUNTA($B23:K23),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="str">
-        <f>B24</f>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Sasniegums</v>
       </c>
-      <c r="C78" s="1" t="str">
+      <c r="C80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:B24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:B24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:B24),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D78" s="1" t="str">
+      <c r="D80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:C24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:C24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:C24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="E78" s="1" t="str">
+      <c r="E80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:D24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:D24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:D24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F78" s="1" t="str">
+      <c r="F80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:E24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:E24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:E24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="G78" s="1" t="str">
+      <c r="G80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:F24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:F24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:F24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="H78" s="7" t="str">
+      <c r="H80" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:G24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:G24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:G24),6),"")</f>
         <v>4y2m2d v EID</v>
       </c>
-      <c r="I78" s="1" t="str">
+      <c r="I80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:H24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:H24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:H24),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="J78" s="1" t="str">
+      <c r="J80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:I24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:I24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:I24),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="K78" s="1" t="str">
+      <c r="K80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:J24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:J24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:J24),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="L78" s="1" t="str">
+      <c r="L80" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A24), COUNTA($B24:K24),0)=$B24, OFFSET(INDIRECT($A24), COUNTA($B24:K24),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A24), COUNTA($B24:K24),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="str">
-        <f>B25</f>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Ziņošana</v>
       </c>
-      <c r="C79" s="1" t="str">
+      <c r="C81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:B25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:B25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:B25),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="D79" s="1" t="str">
+      <c r="D81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:C25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:C25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:C25),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E79" s="1" t="str">
+      <c r="E81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:D25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:D25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:D25),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F79" s="1" t="str">
+      <c r="F81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:E25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:E25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:E25),6),"")</f>
-        <v>str v EID</v>
-      </c>
-      <c r="G79" s="7" t="str">
+        <v>4y2m2d v EID</v>
+      </c>
+      <c r="G81" s="7" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:F25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:F25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:F25),6),"")</f>
-        <v>4y2m2d v EID</v>
-      </c>
-      <c r="H79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:G25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:G25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:G25),6),"")</f>
         <v/>
       </c>
-      <c r="I79" s="1" t="str">
+      <c r="I81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:H25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:H25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:H25),6),"")</f>
         <v/>
       </c>
-      <c r="J79" s="1" t="str">
+      <c r="J81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:I25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:I25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:I25),6),"")</f>
         <v/>
       </c>
-      <c r="K79" s="1" t="str">
+      <c r="K81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:J25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:J25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:J25),6),"")</f>
         <v/>
       </c>
-      <c r="L79" s="1" t="str">
+      <c r="L81" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A25), COUNTA($B25:K25),0)=$B25, OFFSET(INDIRECT($A25), COUNTA($B25:K25),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A25), COUNTA($B25:K25),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="str">
-        <f>B26</f>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>Publisks_Iepirkums</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C82" s="1">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:B26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:B26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:B26),6),"")</f>
         <v>0</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D82" s="1">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:C26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:C26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:C26),6),"")</f>
         <v>0</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E82" s="1">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:D26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:D26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:D26),6),"")</f>
         <v>0</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F82" s="1">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:E26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:E26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:E26),6),"")</f>
         <v>0</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G82" s="7">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:F26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:F26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:F26),6),"")</f>
         <v>0</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H82" s="1">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:G26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:G26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:G26),6),"")</f>
         <v>0</v>
       </c>
-      <c r="I80" s="1" t="str">
+      <c r="I82" s="1">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:H26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:H26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:H26),6),"")</f>
-        <v/>
-      </c>
-      <c r="J80" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:I26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:I26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:I26),6),"")</f>
         <v/>
       </c>
-      <c r="K80" s="1" t="str">
+      <c r="K82" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:J26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:J26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:J26),6),"")</f>
         <v/>
       </c>
-      <c r="L80" s="1" t="str">
+      <c r="L82" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A26), COUNTA($B26:K26),0)=$B26, OFFSET(INDIRECT($A26), COUNTA($B26:K26),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A26), COUNTA($B26:K26),6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="str">
-        <f t="shared" ref="B81" si="1">B27</f>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="str">
+        <f t="shared" ref="B83:B84" si="3">B27</f>
         <v>Zīmols</v>
       </c>
-      <c r="C81" s="1" t="str">
+      <c r="C83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:B27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:B27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:B27),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="D81" s="1" t="str">
+      <c r="D83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:C27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:C27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:C27),6),"")</f>
         <v>EID</v>
       </c>
-      <c r="E81" s="1" t="str">
+      <c r="E83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:D27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:D27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:D27),6),"")</f>
         <v>str v EID</v>
       </c>
-      <c r="F81" s="1" t="str">
+      <c r="F83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:E27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:E27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:E27),6),"")</f>
         <v/>
       </c>
-      <c r="G81" s="1" t="str">
+      <c r="G83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:F27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:F27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:F27),6),"")</f>
         <v/>
       </c>
-      <c r="H81" s="1" t="str">
+      <c r="H83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:G27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:G27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:G27),6),"")</f>
         <v/>
       </c>
-      <c r="I81" s="1" t="str">
+      <c r="I83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:H27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:H27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:H27),6),"")</f>
         <v/>
       </c>
-      <c r="J81" s="1" t="str">
+      <c r="J83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:I27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:I27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:I27),6),"")</f>
         <v/>
       </c>
-      <c r="K81" s="1" t="str">
+      <c r="K83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:J27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:J27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:J27),6),"")</f>
         <v/>
       </c>
-      <c r="L81" s="1" t="str">
+      <c r="L83" s="1" t="str">
         <f ca="1">IF(AND(OFFSET(INDIRECT($A27), COUNTA($B27:K27),0)=$B27, OFFSET(INDIRECT($A27), COUNTA($B27:K27),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A27), COUNTA($B27:K27),6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Nestrukturēts</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:B28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:B28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:B28),6),"")</f>
+        <v>EID</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:C28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:C28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:C28),6),"")</f>
+        <v>str</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:D28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:D28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:D28),6),"")</f>
+        <v>str</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:E28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:E28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:E28),6),"")</f>
+        <v/>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:F28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:F28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:F28),6),"")</f>
+        <v/>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:G28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:G28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:G28),6),"")</f>
+        <v/>
+      </c>
+      <c r="I84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:H28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:H28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:H28),6),"")</f>
+        <v/>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:I28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:I28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:I28),6),"")</f>
+        <v/>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:J28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:J28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:J28),6),"")</f>
+        <v/>
+      </c>
+      <c r="L84" s="1" t="str">
+        <f ca="1">IF(AND(OFFSET(INDIRECT($A28), COUNTA($B28:K28),0)=$B28, OFFSET(INDIRECT($A28), COUNTA($B28:K28),1) = 'frames-new'!$B$5),OFFSET(INDIRECT($A28), COUNTA($B28:K28),6),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L25 C27:L27">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11797,6 +12033,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:L26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:L28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
